--- a/mini proj data- pipe gettime.xlsx
+++ b/mini proj data- pipe gettime.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
-    <t>l</t>
+    <t>lantency</t>
   </si>
   <si>
-    <t>t</t>
+    <t>throughput</t>
   </si>
   <si>
     <t>bytes</t>
@@ -39,12 +39,15 @@
   <si>
     <t>seconds</t>
   </si>
+  <si>
+    <t>min</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -54,13 +57,18 @@
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
     </font>
     <font/>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -71,6 +79,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
   </fills>
@@ -85,21 +105,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
@@ -107,7 +133,7 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
   </cellXfs>
@@ -134,5180 +160,5167 @@
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="6">
         <v>4.0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="6">
         <v>16.0</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>64.0</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="6">
         <v>256.0</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="6">
         <v>4.0</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="6">
         <v>16.0</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="6">
         <v>64.0</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="6">
         <v>256.0</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="S3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="5">
+      <c r="A4" s="4"/>
+      <c r="B4" s="7">
         <v>4.0</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>16.0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="7">
         <v>64.0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="7">
         <v>256.0</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>1024.0</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="7">
         <v>4096.0</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="7">
         <v>16384.0</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="7">
         <v>65536.0</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="7">
         <v>262144.0</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="7">
         <v>4.0</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="7">
         <v>16.0</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="7">
         <v>64.0</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="7">
         <v>256.0</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="7">
         <v>1024.0</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="7">
         <v>4096.0</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="7">
         <v>16384.0</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="7">
         <v>65536.0</v>
       </c>
-      <c r="S4" s="5">
+      <c r="S4" s="7">
         <v>262144.0</v>
       </c>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="8">
         <v>5.0E-6</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="8">
         <v>5.0E-6</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>7.0E-6</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="8">
         <v>7.0E-6</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="8">
         <v>6.0E-6</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="8">
         <v>2.0E-5</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="8">
         <v>8.0E-6</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="8">
         <v>4.0E-5</v>
       </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="7">
+      <c r="J5" s="4"/>
+      <c r="K5" s="9">
         <v>2.53E-4</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="9">
         <v>4.2E-4</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="9">
         <v>3.46E-4</v>
       </c>
-      <c r="N5" s="7">
+      <c r="N5" s="9">
         <v>6.53E-4</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="9">
         <v>3.34E-4</v>
       </c>
-      <c r="P5" s="7">
+      <c r="P5" s="9">
         <v>3.72E-4</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="9">
         <v>3.68E-4</v>
       </c>
-      <c r="R5" s="7">
+      <c r="R5" s="9">
         <v>2.76E-4</v>
       </c>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
     </row>
     <row r="6">
-      <c r="B6" s="7">
+      <c r="B6" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="9">
         <v>5.1E-5</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="9">
         <v>2.82E-4</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="9">
         <v>3.08E-4</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="9">
         <v>2.89E-4</v>
       </c>
-      <c r="N6" s="7">
+      <c r="N6" s="9">
         <v>6.33E-4</v>
       </c>
-      <c r="O6" s="7">
+      <c r="O6" s="9">
         <v>3.22E-4</v>
       </c>
-      <c r="P6" s="7">
+      <c r="P6" s="9">
         <v>3.07E-4</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="9">
         <v>2.84E-4</v>
       </c>
-      <c r="R6" s="7">
+      <c r="R6" s="9">
         <v>3.21E-4</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="7">
+      <c r="B7" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="D7" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="E7" s="7">
+      <c r="D7" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="E7" s="9">
         <v>2.8E-5</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="H7" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="I7" s="7">
+      <c r="H7" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="I7" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="9">
         <v>2.74E-4</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="9">
         <v>3.6E-4</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="9">
         <v>2.93E-4</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="9">
         <v>6.65E-4</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="9">
         <v>3.51E-4</v>
       </c>
-      <c r="P7" s="7">
+      <c r="P7" s="9">
         <v>3.33E-4</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="9">
         <v>2.04E-4</v>
       </c>
-      <c r="R7" s="7">
+      <c r="R7" s="9">
         <v>3.2E-4</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="7">
+      <c r="B8" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="D8" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="E8" s="7">
+      <c r="D8" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="E8" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="9">
         <v>2.7E-5</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="9">
         <v>5.7E-5</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="9">
         <v>2.62E-4</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="9">
         <v>2.75E-4</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="9">
         <v>2.85E-4</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="9">
         <v>6.75E-4</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="9">
         <v>2.61E-4</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="9">
         <v>3.09E-4</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="9">
         <v>2.2E-4</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="9">
         <v>4.02E-4</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="7">
+      <c r="B9" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="H9" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="H9" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="I9" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="9">
         <v>2.77E-4</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="9">
         <v>2.74E-4</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="9">
         <v>3.08E-4</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="9">
         <v>6.58E-4</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="9">
         <v>2.63E-4</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="9">
         <v>3.3E-4</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="9">
         <v>2.51E-4</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="9">
         <v>3.08E-4</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="7">
+      <c r="B10" s="9">
         <v>3.9E-5</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="9">
         <v>5.2E-5</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="9">
         <v>4.5E-5</v>
       </c>
-      <c r="H10" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="I10" s="7">
+      <c r="H10" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="I10" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="9">
         <v>2.78E-4</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="9">
         <v>2.74E-4</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="9">
         <v>3.21E-4</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="9">
         <v>6.91E-4</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="9">
         <v>2.57E-4</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="9">
         <v>3.2E-4</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="9">
         <v>2.06E-4</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="9">
         <v>3.17E-4</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="7">
+      <c r="B11" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="F11" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="G11" s="7">
+      <c r="F11" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="G11" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="H11" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="I11" s="7">
+      <c r="H11" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="I11" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="9">
         <v>2.6E-4</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="9">
         <v>2.89E-4</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="9">
         <v>2.71E-4</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="9">
         <v>5.97E-4</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="9">
         <v>4.36E-4</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="9">
         <v>3.12E-4</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="9">
         <v>2.17E-4</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="9">
         <v>3.1E-4</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="7">
+      <c r="B12" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="H12" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="H12" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="I12" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="9">
         <v>2.29E-4</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="9">
         <v>3.66E-4</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="9">
         <v>3.23E-4</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="9">
         <v>6.7E-4</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="9">
         <v>2.86E-4</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="9">
         <v>2.99E-4</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="9">
         <v>2.74E-4</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="9">
         <v>2.97E-4</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="B13" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="C13" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="9">
         <v>4.6E-5</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="9">
         <v>2.35E-4</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="9">
         <v>3.03E-4</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="9">
         <v>2.89E-4</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="9">
         <v>6.52E-4</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="9">
         <v>3.45E-4</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="9">
         <v>2.87E-4</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="9">
         <v>2.25E-4</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="9">
         <v>2.82E-4</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="7">
+      <c r="B14" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="9">
         <v>2.53E-4</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="9">
         <v>2.67E-4</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="9">
         <v>2.79E-4</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="9">
         <v>6.53E-4</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="9">
         <v>3.44E-4</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="9">
         <v>2.64E-4</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="9">
         <v>2.12E-4</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="9">
         <v>3.03E-4</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="7">
+      <c r="B15" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="H15" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="I15" s="7">
+      <c r="H15" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="I15" s="9">
         <v>7.0E-5</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="9">
         <v>2.45E-4</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="9">
         <v>3.12E-4</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="9">
         <v>2.75E-4</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="9">
         <v>6.52E-4</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="9">
         <v>2.97E-4</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="9">
         <v>2.59E-4</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="9">
         <v>2.14E-4</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="9">
         <v>3.15E-4</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="7">
+      <c r="B16" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="9">
         <v>2.7E-5</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="9">
         <v>5.3E-5</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="9">
         <v>5.7E-5</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="9">
         <v>2.47E-4</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="9">
         <v>2.7E-4</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="9">
         <v>2.75E-4</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="9">
         <v>6.57E-4</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="9">
         <v>3.06E-4</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="9">
         <v>2.9E-4</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="9">
         <v>2.96E-4</v>
       </c>
-      <c r="R16" s="7">
+      <c r="R16" s="9">
         <v>2.84E-4</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="7">
+      <c r="B17" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="H17" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="I17" s="7">
+      <c r="H17" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="I17" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="9">
         <v>2.45E-4</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="9">
         <v>2.97E-4</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="9">
         <v>2.62E-4</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="9">
         <v>6.45E-4</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="9">
         <v>3.07E-4</v>
       </c>
-      <c r="P17" s="7">
+      <c r="P17" s="9">
         <v>2.0E-4</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="9">
         <v>2.19E-4</v>
       </c>
-      <c r="R17" s="7">
+      <c r="R17" s="9">
         <v>2.14E-4</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="7">
+      <c r="B18" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="D18" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="F18" s="7">
+      <c r="D18" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="E18" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="F18" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="9">
         <v>2.0E-4</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="9">
         <v>3.82E-4</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="9">
         <v>2.59E-4</v>
       </c>
-      <c r="N18" s="7">
+      <c r="N18" s="9">
         <v>6.05E-4</v>
       </c>
-      <c r="O18" s="7">
+      <c r="O18" s="9">
         <v>2.74E-4</v>
       </c>
-      <c r="P18" s="7">
+      <c r="P18" s="9">
         <v>2.68E-4</v>
       </c>
-      <c r="Q18" s="7">
+      <c r="Q18" s="9">
         <v>2.01E-4</v>
       </c>
-      <c r="R18" s="7">
+      <c r="R18" s="9">
         <v>2.13E-4</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="7">
+      <c r="B19" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="C19" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="D19" s="9">
         <v>4.7E-5</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="9">
         <v>2.8E-5</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="H19" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="I19" s="7">
+      <c r="H19" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="I19" s="9">
         <v>4.0E-5</v>
       </c>
-      <c r="K19" s="7">
+      <c r="K19" s="9">
         <v>1.99E-4</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="9">
         <v>3.11E-4</v>
       </c>
-      <c r="M19" s="7">
+      <c r="M19" s="9">
         <v>2.74E-4</v>
       </c>
-      <c r="N19" s="7">
+      <c r="N19" s="9">
         <v>4.8E-4</v>
       </c>
-      <c r="O19" s="7">
+      <c r="O19" s="9">
         <v>2.48E-4</v>
       </c>
-      <c r="P19" s="7">
+      <c r="P19" s="9">
         <v>2.68E-4</v>
       </c>
-      <c r="Q19" s="7">
+      <c r="Q19" s="9">
         <v>2.09E-4</v>
       </c>
-      <c r="R19" s="7">
+      <c r="R19" s="9">
         <v>2.1E-4</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="7">
+      <c r="B20" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="9">
         <v>6.4E-5</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K20" s="9">
         <v>1.94E-4</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="9">
         <v>3.23E-4</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="9">
         <v>2.7E-4</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="9">
         <v>4.53E-4</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="9">
         <v>2.22E-4</v>
       </c>
-      <c r="P20" s="7">
+      <c r="P20" s="9">
         <v>3.14E-4</v>
       </c>
-      <c r="Q20" s="7">
+      <c r="Q20" s="9">
         <v>1.63E-4</v>
       </c>
-      <c r="R20" s="7">
+      <c r="R20" s="9">
         <v>2.58E-4</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="7">
+      <c r="B21" s="9">
         <v>4.7E-5</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="9">
         <v>2.14E-4</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="9">
         <v>3.11E-4</v>
       </c>
-      <c r="M21" s="7">
+      <c r="M21" s="9">
         <v>2.88E-4</v>
       </c>
-      <c r="N21" s="7">
+      <c r="N21" s="9">
         <v>5.58E-4</v>
       </c>
-      <c r="O21" s="7">
+      <c r="O21" s="9">
         <v>2.65E-4</v>
       </c>
-      <c r="P21" s="7">
+      <c r="P21" s="9">
         <v>2.87E-4</v>
       </c>
-      <c r="Q21" s="7">
+      <c r="Q21" s="9">
         <v>1.55E-4</v>
       </c>
-      <c r="R21" s="7">
+      <c r="R21" s="9">
         <v>2.14E-4</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="7">
+      <c r="B22" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="D22" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="E22" s="7">
+      <c r="D22" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="E22" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="9">
         <v>5.6E-5</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="9">
         <v>1.85E-4</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="9">
         <v>3.17E-4</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="9">
         <v>2.91E-4</v>
       </c>
-      <c r="N22" s="7">
+      <c r="N22" s="9">
         <v>5.86E-4</v>
       </c>
-      <c r="O22" s="7">
+      <c r="O22" s="9">
         <v>2.79E-4</v>
       </c>
-      <c r="P22" s="7">
+      <c r="P22" s="9">
         <v>2.6E-4</v>
       </c>
-      <c r="Q22" s="7">
+      <c r="Q22" s="9">
         <v>2.93E-4</v>
       </c>
-      <c r="R22" s="7">
+      <c r="R22" s="9">
         <v>2.24E-4</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="7">
+      <c r="B23" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="E23" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="E23" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="F23" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="H23" s="7">
+      <c r="H23" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="K23" s="7">
+      <c r="K23" s="9">
         <v>1.9E-4</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="9">
         <v>2.79E-4</v>
       </c>
-      <c r="M23" s="7">
+      <c r="M23" s="9">
         <v>2.71E-4</v>
       </c>
-      <c r="N23" s="7">
+      <c r="N23" s="9">
         <v>5.2E-4</v>
       </c>
-      <c r="O23" s="7">
+      <c r="O23" s="9">
         <v>2.29E-4</v>
       </c>
-      <c r="P23" s="7">
+      <c r="P23" s="9">
         <v>3.03E-4</v>
       </c>
-      <c r="Q23" s="7">
+      <c r="Q23" s="9">
         <v>3.15E-4</v>
       </c>
-      <c r="R23" s="7">
+      <c r="R23" s="9">
         <v>2.15E-4</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="7">
+      <c r="B24" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="C24" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="C24" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="D24" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="9">
         <v>4.5E-5</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="9">
         <v>1.92E-4</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="9">
         <v>2.77E-4</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="9">
         <v>2.83E-4</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N24" s="9">
         <v>5.45E-4</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="9">
         <v>2.57E-4</v>
       </c>
-      <c r="P24" s="7">
+      <c r="P24" s="9">
         <v>3.19E-4</v>
       </c>
-      <c r="Q24" s="7">
+      <c r="Q24" s="9">
         <v>3.18E-4</v>
       </c>
-      <c r="R24" s="7">
+      <c r="R24" s="9">
         <v>2.15E-4</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="7">
+      <c r="B25" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="9">
         <v>2.8E-5</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="K25" s="7">
+      <c r="K25" s="9">
         <v>1.88E-4</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="9">
         <v>3.2E-4</v>
       </c>
-      <c r="M25" s="7">
+      <c r="M25" s="9">
         <v>2.88E-4</v>
       </c>
-      <c r="N25" s="7">
+      <c r="N25" s="9">
         <v>6.26E-4</v>
       </c>
-      <c r="O25" s="7">
+      <c r="O25" s="9">
         <v>2.76E-4</v>
       </c>
-      <c r="P25" s="7">
+      <c r="P25" s="9">
         <v>2.84E-4</v>
       </c>
-      <c r="Q25" s="7">
+      <c r="Q25" s="9">
         <v>3.28E-4</v>
       </c>
-      <c r="R25" s="7">
+      <c r="R25" s="9">
         <v>2.11E-4</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="7">
+      <c r="B26" s="9">
         <v>2.8E-5</v>
       </c>
-      <c r="C26" s="7">
+      <c r="C26" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="E26" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="E26" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="F26" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="K26" s="7">
+      <c r="K26" s="9">
         <v>1.92E-4</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="9">
         <v>2.83E-4</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="9">
         <v>2.74E-4</v>
       </c>
-      <c r="N26" s="7">
+      <c r="N26" s="9">
         <v>5.35E-4</v>
       </c>
-      <c r="O26" s="7">
+      <c r="O26" s="9">
         <v>2.39E-4</v>
       </c>
-      <c r="P26" s="7">
+      <c r="P26" s="9">
         <v>3.0E-4</v>
       </c>
-      <c r="Q26" s="7">
+      <c r="Q26" s="9">
         <v>3.27E-4</v>
       </c>
-      <c r="R26" s="7">
+      <c r="R26" s="9">
         <v>2.02E-4</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="7">
+      <c r="B27" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="K27" s="7">
+      <c r="K27" s="9">
         <v>2.39E-4</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="9">
         <v>2.87E-4</v>
       </c>
-      <c r="M27" s="7">
+      <c r="M27" s="9">
         <v>3.23E-4</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="9">
         <v>5.07E-4</v>
       </c>
-      <c r="O27" s="7">
+      <c r="O27" s="9">
         <v>2.19E-4</v>
       </c>
-      <c r="P27" s="7">
+      <c r="P27" s="9">
         <v>2.72E-4</v>
       </c>
-      <c r="Q27" s="7">
+      <c r="Q27" s="9">
         <v>3.23E-4</v>
       </c>
-      <c r="R27" s="7">
+      <c r="R27" s="9">
         <v>2.07E-4</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="7">
+      <c r="B28" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="C28" s="7">
+      <c r="C28" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="F28" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="G28" s="7">
+      <c r="F28" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="G28" s="9">
         <v>4.2E-5</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="9">
         <v>6.9E-5</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="9">
         <v>1.96E-4</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="9">
         <v>2.29E-4</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="9">
         <v>3.13E-4</v>
       </c>
-      <c r="N28" s="7">
+      <c r="N28" s="9">
         <v>4.87E-4</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="9">
         <v>2.5E-4</v>
       </c>
-      <c r="P28" s="7">
+      <c r="P28" s="9">
         <v>3.24E-4</v>
       </c>
-      <c r="Q28" s="7">
+      <c r="Q28" s="9">
         <v>2.91E-4</v>
       </c>
-      <c r="R28" s="7">
+      <c r="R28" s="9">
         <v>1.88E-4</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="7">
+      <c r="B29" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E29" s="9">
         <v>2.5E-5</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F29" s="9">
         <v>2.7E-5</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="9">
         <v>5.6E-5</v>
       </c>
-      <c r="K29" s="7">
+      <c r="K29" s="9">
         <v>2.01E-4</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="9">
         <v>3.22E-4</v>
       </c>
-      <c r="M29" s="7">
+      <c r="M29" s="9">
         <v>2.67E-4</v>
       </c>
-      <c r="N29" s="7">
+      <c r="N29" s="9">
         <v>4.91E-4</v>
       </c>
-      <c r="O29" s="7">
+      <c r="O29" s="9">
         <v>2.79E-4</v>
       </c>
-      <c r="P29" s="7">
+      <c r="P29" s="9">
         <v>2.57E-4</v>
       </c>
-      <c r="Q29" s="7">
+      <c r="Q29" s="9">
         <v>2.88E-4</v>
       </c>
-      <c r="R29" s="7">
+      <c r="R29" s="9">
         <v>1.78E-4</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="7">
+      <c r="B30" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="C30" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="D30" s="7">
+      <c r="C30" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="D30" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F30" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="I30" s="7">
+      <c r="I30" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="K30" s="7">
+      <c r="K30" s="9">
         <v>1.98E-4</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="9">
         <v>2.2E-4</v>
       </c>
-      <c r="M30" s="7">
+      <c r="M30" s="9">
         <v>2.9E-4</v>
       </c>
-      <c r="N30" s="7">
+      <c r="N30" s="9">
         <v>5.09E-4</v>
       </c>
-      <c r="O30" s="7">
+      <c r="O30" s="9">
         <v>2.04E-4</v>
       </c>
-      <c r="P30" s="7">
+      <c r="P30" s="9">
         <v>2.96E-4</v>
       </c>
-      <c r="Q30" s="7">
+      <c r="Q30" s="9">
         <v>2.87E-4</v>
       </c>
-      <c r="R30" s="7">
+      <c r="R30" s="9">
         <v>1.81E-4</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="C31" s="7">
+      <c r="B31" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="C31" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E31" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F31" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="G31" s="7">
+      <c r="G31" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="9">
         <v>4.4E-5</v>
       </c>
-      <c r="K31" s="7">
+      <c r="K31" s="9">
         <v>1.89E-4</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="9">
         <v>2.12E-4</v>
       </c>
-      <c r="M31" s="7">
+      <c r="M31" s="9">
         <v>2.55E-4</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="9">
         <v>4.88E-4</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="9">
         <v>2.32E-4</v>
       </c>
-      <c r="P31" s="7">
+      <c r="P31" s="9">
         <v>2.43E-4</v>
       </c>
-      <c r="Q31" s="7">
+      <c r="Q31" s="9">
         <v>2.87E-4</v>
       </c>
-      <c r="R31" s="7">
+      <c r="R31" s="9">
         <v>1.77E-4</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="7">
+      <c r="B32" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C32" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F32" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="G32" s="7">
+      <c r="G32" s="9">
         <v>2.5E-5</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="9">
         <v>4.2E-5</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="9">
         <v>1.82E-4</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="9">
         <v>2.34E-4</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="9">
         <v>2.37E-4</v>
       </c>
-      <c r="N32" s="7">
+      <c r="N32" s="9">
         <v>5.12E-4</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="9">
         <v>2.38E-4</v>
       </c>
-      <c r="P32" s="7">
+      <c r="P32" s="9">
         <v>2.49E-4</v>
       </c>
-      <c r="Q32" s="7">
+      <c r="Q32" s="9">
         <v>2.91E-4</v>
       </c>
-      <c r="R32" s="7">
+      <c r="R32" s="9">
         <v>2.05E-4</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="7">
+      <c r="B33" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C33" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D33" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E33" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F33" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="H33" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="I33" s="7">
+      <c r="H33" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="I33" s="9">
         <v>4.2E-5</v>
       </c>
-      <c r="K33" s="7">
+      <c r="K33" s="9">
         <v>1.78E-4</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="9">
         <v>3.07E-4</v>
       </c>
-      <c r="M33" s="7">
+      <c r="M33" s="9">
         <v>2.38E-4</v>
       </c>
-      <c r="N33" s="7">
+      <c r="N33" s="9">
         <v>3.52E-4</v>
       </c>
-      <c r="O33" s="7">
+      <c r="O33" s="9">
         <v>2.35E-4</v>
       </c>
-      <c r="P33" s="7">
+      <c r="P33" s="9">
         <v>2.36E-4</v>
       </c>
-      <c r="Q33" s="7">
+      <c r="Q33" s="9">
         <v>2.91E-4</v>
       </c>
-      <c r="R33" s="7">
+      <c r="R33" s="9">
         <v>1.95E-4</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="C34" s="7">
+      <c r="B34" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="C34" s="9">
         <v>3.9E-5</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="9">
         <v>2.5E-5</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F34" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="G34" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="H34" s="7">
+      <c r="G34" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="H34" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="9">
         <v>5.7E-5</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="9">
         <v>1.72E-4</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="9">
         <v>2.61E-4</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="9">
         <v>2.14E-4</v>
       </c>
-      <c r="N34" s="7">
+      <c r="N34" s="9">
         <v>3.76E-4</v>
       </c>
-      <c r="O34" s="7">
+      <c r="O34" s="9">
         <v>1.97E-4</v>
       </c>
-      <c r="P34" s="7">
+      <c r="P34" s="9">
         <v>2.37E-4</v>
       </c>
-      <c r="Q34" s="7">
+      <c r="Q34" s="9">
         <v>3.02E-4</v>
       </c>
-      <c r="R34" s="7">
+      <c r="R34" s="9">
         <v>2.97E-4</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="7">
+      <c r="B35" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C35" s="9">
         <v>3.9E-5</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D35" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F35" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="G35" s="7">
+      <c r="G35" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="I35" s="7">
+      <c r="I35" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="K35" s="7">
+      <c r="K35" s="9">
         <v>1.72E-4</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="9">
         <v>2.56E-4</v>
       </c>
-      <c r="M35" s="7">
+      <c r="M35" s="9">
         <v>2.4E-4</v>
       </c>
-      <c r="N35" s="7">
+      <c r="N35" s="9">
         <v>3.62E-4</v>
       </c>
-      <c r="O35" s="7">
+      <c r="O35" s="9">
         <v>2.11E-4</v>
       </c>
-      <c r="P35" s="7">
+      <c r="P35" s="9">
         <v>2.42E-4</v>
       </c>
-      <c r="Q35" s="7">
+      <c r="Q35" s="9">
         <v>2.85E-4</v>
       </c>
-      <c r="R35" s="7">
+      <c r="R35" s="9">
         <v>3.53E-4</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="7">
+      <c r="B36" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="C36" s="7">
+      <c r="C36" s="9">
         <v>2.5E-5</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F36" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="G36" s="7">
+      <c r="G36" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="9">
         <v>1.75E-4</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="9">
         <v>2.27E-4</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="9">
         <v>2.42E-4</v>
       </c>
-      <c r="N36" s="7">
+      <c r="N36" s="9">
         <v>3.41E-4</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="9">
         <v>2.0E-4</v>
       </c>
-      <c r="P36" s="7">
+      <c r="P36" s="9">
         <v>2.38E-4</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="Q36" s="9">
         <v>2.84E-4</v>
       </c>
-      <c r="R36" s="7">
+      <c r="R36" s="9">
         <v>3.56E-4</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="7">
+      <c r="B37" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="C37" s="7">
+      <c r="C37" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D37" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="9">
         <v>2.7E-5</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F37" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="I37" s="7">
+      <c r="I37" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="K37" s="7">
+      <c r="K37" s="9">
         <v>1.76E-4</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="9">
         <v>2.82E-4</v>
       </c>
-      <c r="M37" s="7">
+      <c r="M37" s="9">
         <v>2.34E-4</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="9">
         <v>4.01E-4</v>
       </c>
-      <c r="O37" s="7">
+      <c r="O37" s="9">
         <v>2.14E-4</v>
       </c>
-      <c r="P37" s="7">
+      <c r="P37" s="9">
         <v>2.67E-4</v>
       </c>
-      <c r="Q37" s="7">
+      <c r="Q37" s="9">
         <v>2.81E-4</v>
       </c>
-      <c r="R37" s="7">
+      <c r="R37" s="9">
         <v>3.63E-4</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="7">
+      <c r="B38" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="C38" s="7">
+      <c r="C38" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F38" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="H38" s="7">
+      <c r="H38" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="K38" s="7">
+      <c r="K38" s="9">
         <v>1.76E-4</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="9">
         <v>3.07E-4</v>
       </c>
-      <c r="M38" s="7">
+      <c r="M38" s="9">
         <v>2.25E-4</v>
       </c>
-      <c r="N38" s="7">
+      <c r="N38" s="9">
         <v>3.68E-4</v>
       </c>
-      <c r="O38" s="7">
+      <c r="O38" s="9">
         <v>2.02E-4</v>
       </c>
-      <c r="P38" s="7">
+      <c r="P38" s="9">
         <v>2.27E-4</v>
       </c>
-      <c r="Q38" s="7">
+      <c r="Q38" s="9">
         <v>2.83E-4</v>
       </c>
-      <c r="R38" s="7">
+      <c r="R38" s="9">
         <v>3.63E-4</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="7">
+      <c r="B39" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C39" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D39" s="9">
         <v>2.4E-5</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="9">
         <v>3.9E-5</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="G39" s="7">
+      <c r="G39" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="H39" s="7">
+      <c r="H39" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="I39" s="7">
+      <c r="I39" s="9">
         <v>2.8E-5</v>
       </c>
-      <c r="K39" s="7">
+      <c r="K39" s="9">
         <v>1.76E-4</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="9">
         <v>2.57E-4</v>
       </c>
-      <c r="M39" s="7">
+      <c r="M39" s="9">
         <v>2.37E-4</v>
       </c>
-      <c r="N39" s="7">
+      <c r="N39" s="9">
         <v>3.64E-4</v>
       </c>
-      <c r="O39" s="7">
+      <c r="O39" s="9">
         <v>2.07E-4</v>
       </c>
-      <c r="P39" s="7">
+      <c r="P39" s="9">
         <v>2.55E-4</v>
       </c>
-      <c r="Q39" s="7">
+      <c r="Q39" s="9">
         <v>2.69E-4</v>
       </c>
-      <c r="R39" s="7">
+      <c r="R39" s="9">
         <v>3.61E-4</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="7">
+      <c r="B40" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="C40" s="7">
+      <c r="C40" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F40" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="G40" s="7">
+      <c r="G40" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="H40" s="7">
+      <c r="H40" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="9">
         <v>4.0E-5</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="9">
         <v>1.58E-4</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="9">
         <v>2.81E-4</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="9">
         <v>2.28E-4</v>
       </c>
-      <c r="N40" s="7">
+      <c r="N40" s="9">
         <v>3.69E-4</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="9">
         <v>2.42E-4</v>
       </c>
-      <c r="P40" s="7">
+      <c r="P40" s="9">
         <v>2.37E-4</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="Q40" s="9">
         <v>3.12E-4</v>
       </c>
-      <c r="R40" s="7">
+      <c r="R40" s="9">
         <v>3.89E-4</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="7">
+      <c r="B41" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C41" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D41" s="9">
         <v>4.8E-5</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F41" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="G41" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="H41" s="7">
+      <c r="G41" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="H41" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="9">
         <v>1.7E-4</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="9">
         <v>2.19E-4</v>
       </c>
-      <c r="M41" s="7">
+      <c r="M41" s="9">
         <v>2.68E-4</v>
       </c>
-      <c r="N41" s="7">
+      <c r="N41" s="9">
         <v>3.5E-4</v>
       </c>
-      <c r="O41" s="7">
+      <c r="O41" s="9">
         <v>3.03E-4</v>
       </c>
-      <c r="P41" s="7">
+      <c r="P41" s="9">
         <v>2.31E-4</v>
       </c>
-      <c r="Q41" s="7">
+      <c r="Q41" s="9">
         <v>2.89E-4</v>
       </c>
-      <c r="R41" s="7">
+      <c r="R41" s="9">
         <v>4.3E-4</v>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="7">
+      <c r="B42" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="C42" s="7">
+      <c r="C42" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="E42" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="F42" s="7">
+      <c r="E42" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="F42" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="G42" s="7">
+      <c r="G42" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="I42" s="7">
+      <c r="I42" s="9">
         <v>3.9E-5</v>
       </c>
-      <c r="K42" s="7">
+      <c r="K42" s="9">
         <v>1.69E-4</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="9">
         <v>2.28E-4</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="9">
         <v>2.74E-4</v>
       </c>
-      <c r="N42" s="7">
+      <c r="N42" s="9">
         <v>3.87E-4</v>
       </c>
-      <c r="O42" s="7">
+      <c r="O42" s="9">
         <v>2.53E-4</v>
       </c>
-      <c r="P42" s="7">
+      <c r="P42" s="9">
         <v>2.45E-4</v>
       </c>
-      <c r="Q42" s="7">
+      <c r="Q42" s="9">
         <v>2.89E-4</v>
       </c>
-      <c r="R42" s="7">
+      <c r="R42" s="9">
         <v>3.75E-4</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="7">
+      <c r="B43" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C43" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D43" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="I43" s="7">
+      <c r="I43" s="9">
         <v>6.2E-5</v>
       </c>
-      <c r="K43" s="7">
+      <c r="K43" s="9">
         <v>1.73E-4</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="9">
         <v>2.67E-4</v>
       </c>
-      <c r="M43" s="7">
+      <c r="M43" s="9">
         <v>3.14E-4</v>
       </c>
-      <c r="N43" s="7">
+      <c r="N43" s="9">
         <v>3.16E-4</v>
       </c>
-      <c r="O43" s="7">
+      <c r="O43" s="9">
         <v>3.71E-4</v>
       </c>
-      <c r="P43" s="7">
+      <c r="P43" s="9">
         <v>2.87E-4</v>
       </c>
-      <c r="Q43" s="7">
+      <c r="Q43" s="9">
         <v>3.09E-4</v>
       </c>
-      <c r="R43" s="7">
+      <c r="R43" s="9">
         <v>5.28E-4</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="7">
+      <c r="B44" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="C44" s="7">
+      <c r="C44" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="9">
         <v>4.6E-5</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F44" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="G44" s="7">
+      <c r="G44" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="9">
         <v>4.6E-5</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="9">
         <v>2.07E-4</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="9">
         <v>2.5E-4</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="9">
         <v>2.48E-4</v>
       </c>
-      <c r="N44" s="7">
+      <c r="N44" s="9">
         <v>3.08E-4</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="9">
         <v>3.07E-4</v>
       </c>
-      <c r="P44" s="7">
+      <c r="P44" s="9">
         <v>2.92E-4</v>
       </c>
-      <c r="Q44" s="7">
+      <c r="Q44" s="9">
         <v>3.9E-4</v>
       </c>
-      <c r="R44" s="7">
+      <c r="R44" s="9">
         <v>3.87E-4</v>
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="7">
+      <c r="B45" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="C45" s="7">
+      <c r="C45" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="D45" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="E45" s="7">
+      <c r="D45" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="E45" s="9">
         <v>4.3E-5</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F45" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="G45" s="7">
+      <c r="G45" s="9">
         <v>4.5E-5</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="I45" s="7">
+      <c r="I45" s="9">
         <v>4.2E-5</v>
       </c>
-      <c r="K45" s="7">
+      <c r="K45" s="9">
         <v>1.83E-4</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="9">
         <v>2.55E-4</v>
       </c>
-      <c r="M45" s="7">
+      <c r="M45" s="9">
         <v>2.79E-4</v>
       </c>
-      <c r="N45" s="7">
+      <c r="N45" s="9">
         <v>3.15E-4</v>
       </c>
-      <c r="O45" s="7">
+      <c r="O45" s="9">
         <v>2.3E-4</v>
       </c>
-      <c r="P45" s="7">
+      <c r="P45" s="9">
         <v>2.72E-4</v>
       </c>
-      <c r="Q45" s="7">
+      <c r="Q45" s="9">
         <v>3.29E-4</v>
       </c>
-      <c r="R45" s="7">
+      <c r="R45" s="9">
         <v>2.35E-4</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="7">
+      <c r="B46" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F46" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="G46" s="7">
+      <c r="G46" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="9">
         <v>2.8E-5</v>
       </c>
-      <c r="K46" s="7">
+      <c r="K46" s="9">
         <v>1.89E-4</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="9">
         <v>2.14E-4</v>
       </c>
-      <c r="M46" s="7">
+      <c r="M46" s="9">
         <v>2.47E-4</v>
       </c>
-      <c r="N46" s="7">
+      <c r="N46" s="9">
         <v>3.16E-4</v>
       </c>
-      <c r="O46" s="7">
+      <c r="O46" s="9">
         <v>2.67E-4</v>
       </c>
-      <c r="P46" s="7">
+      <c r="P46" s="9">
         <v>2.72E-4</v>
       </c>
-      <c r="Q46" s="7">
+      <c r="Q46" s="9">
         <v>3.61E-4</v>
       </c>
-      <c r="R46" s="7">
+      <c r="R46" s="9">
         <v>2.2E-4</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="7">
+      <c r="B47" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C47" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="D47" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="E47" s="7">
+      <c r="D47" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="E47" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="G47" s="7">
+      <c r="G47" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="I47" s="7">
+      <c r="I47" s="9">
         <v>2.7E-5</v>
       </c>
-      <c r="K47" s="7">
+      <c r="K47" s="9">
         <v>1.84E-4</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="9">
         <v>2.58E-4</v>
       </c>
-      <c r="M47" s="7">
+      <c r="M47" s="9">
         <v>2.92E-4</v>
       </c>
-      <c r="N47" s="7">
+      <c r="N47" s="9">
         <v>3.09E-4</v>
       </c>
-      <c r="O47" s="7">
+      <c r="O47" s="9">
         <v>2.36E-4</v>
       </c>
-      <c r="P47" s="7">
+      <c r="P47" s="9">
         <v>2.72E-4</v>
       </c>
-      <c r="Q47" s="7">
+      <c r="Q47" s="9">
         <v>2.24E-4</v>
       </c>
-      <c r="R47" s="7">
+      <c r="R47" s="9">
         <v>2.5E-4</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="7">
+      <c r="B48" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="C48" s="7">
+      <c r="C48" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="9">
         <v>2.4E-5</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="G48" s="7">
+      <c r="G48" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="9">
         <v>6.1E-5</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="9">
         <v>1.89E-4</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="9">
         <v>2.73E-4</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="9">
         <v>2.45E-4</v>
       </c>
-      <c r="N48" s="7">
+      <c r="N48" s="9">
         <v>3.09E-4</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="9">
         <v>2.98E-4</v>
       </c>
-      <c r="P48" s="7">
+      <c r="P48" s="9">
         <v>2.55E-4</v>
       </c>
-      <c r="Q48" s="7">
+      <c r="Q48" s="9">
         <v>2.23E-4</v>
       </c>
-      <c r="R48" s="7">
+      <c r="R48" s="9">
         <v>2.25E-4</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="7">
+      <c r="B49" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C49" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D49" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F49" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="G49" s="7">
+      <c r="G49" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="H49" s="7">
+      <c r="H49" s="9">
         <v>2.4E-5</v>
       </c>
-      <c r="I49" s="7">
+      <c r="I49" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="K49" s="7">
+      <c r="K49" s="9">
         <v>2.01E-4</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="9">
         <v>3.0E-4</v>
       </c>
-      <c r="M49" s="7">
+      <c r="M49" s="9">
         <v>2.86E-4</v>
       </c>
-      <c r="N49" s="7">
+      <c r="N49" s="9">
         <v>3.11E-4</v>
       </c>
-      <c r="O49" s="7">
+      <c r="O49" s="9">
         <v>1.91E-4</v>
       </c>
-      <c r="P49" s="7">
+      <c r="P49" s="9">
         <v>2.82E-4</v>
       </c>
-      <c r="Q49" s="7">
+      <c r="Q49" s="9">
         <v>2.18E-4</v>
       </c>
-      <c r="R49" s="7">
+      <c r="R49" s="9">
         <v>2.92E-4</v>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="7">
+      <c r="B50" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C50" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="H50" s="7">
+      <c r="H50" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="9">
         <v>5.6E-5</v>
       </c>
-      <c r="K50" s="7">
+      <c r="K50" s="9">
         <v>2.28E-4</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="9">
         <v>2.89E-4</v>
       </c>
-      <c r="M50" s="7">
+      <c r="M50" s="9">
         <v>2.38E-4</v>
       </c>
-      <c r="N50" s="7">
+      <c r="N50" s="9">
         <v>3.23E-4</v>
       </c>
-      <c r="O50" s="7">
+      <c r="O50" s="9">
         <v>2.2E-4</v>
       </c>
-      <c r="P50" s="7">
+      <c r="P50" s="9">
         <v>3.15E-4</v>
       </c>
-      <c r="Q50" s="7">
+      <c r="Q50" s="9">
         <v>2.1E-4</v>
       </c>
-      <c r="R50" s="7">
+      <c r="R50" s="9">
         <v>3.97E-4</v>
       </c>
     </row>
     <row r="51">
-      <c r="B51" s="7">
+      <c r="B51" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="C51" s="7">
+      <c r="C51" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D51" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E51" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F51" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="G51" s="7">
+      <c r="G51" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="H51" s="7">
+      <c r="H51" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="I51" s="7">
+      <c r="I51" s="9">
         <v>4.0E-5</v>
       </c>
-      <c r="K51" s="7">
+      <c r="K51" s="9">
         <v>1.86E-4</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="9">
         <v>2.55E-4</v>
       </c>
-      <c r="M51" s="7">
+      <c r="M51" s="9">
         <v>4.29E-4</v>
       </c>
-      <c r="N51" s="7">
+      <c r="N51" s="9">
         <v>2.61E-4</v>
       </c>
-      <c r="O51" s="7">
+      <c r="O51" s="9">
         <v>3.0E-4</v>
       </c>
-      <c r="P51" s="7">
+      <c r="P51" s="9">
         <v>3.63E-4</v>
       </c>
-      <c r="Q51" s="7">
+      <c r="Q51" s="9">
         <v>2.12E-4</v>
       </c>
-      <c r="R51" s="7">
+      <c r="R51" s="9">
         <v>3.91E-4</v>
       </c>
     </row>
     <row r="52">
-      <c r="B52" s="7">
+      <c r="B52" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="C52" s="7">
+      <c r="C52" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F52" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="G52" s="7">
+      <c r="G52" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="H52" s="7">
+      <c r="H52" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="9">
         <v>4.3E-5</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K52" s="9">
         <v>2.04E-4</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="9">
         <v>2.45E-4</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="9">
         <v>4.54E-4</v>
       </c>
-      <c r="N52" s="7">
+      <c r="N52" s="9">
         <v>2.46E-4</v>
       </c>
-      <c r="O52" s="7">
+      <c r="O52" s="9">
         <v>4.34E-4</v>
       </c>
-      <c r="P52" s="7">
+      <c r="P52" s="9">
         <v>3.05E-4</v>
       </c>
-      <c r="Q52" s="7">
+      <c r="Q52" s="9">
         <v>2.23E-4</v>
       </c>
-      <c r="R52" s="7">
+      <c r="R52" s="9">
         <v>2.88E-4</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="7">
+      <c r="B53" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="C53" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="D53" s="7">
+      <c r="C53" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="D53" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E53" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="H53" s="7">
+      <c r="H53" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="I53" s="7">
+      <c r="I53" s="9">
         <v>2.5E-5</v>
       </c>
-      <c r="K53" s="7">
+      <c r="K53" s="9">
         <v>2.07E-4</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="9">
         <v>1.8E-4</v>
       </c>
-      <c r="M53" s="7">
+      <c r="M53" s="9">
         <v>2.88E-4</v>
       </c>
-      <c r="N53" s="7">
+      <c r="N53" s="9">
         <v>2.5E-4</v>
       </c>
-      <c r="O53" s="7">
+      <c r="O53" s="9">
         <v>3.63E-4</v>
       </c>
-      <c r="P53" s="7">
+      <c r="P53" s="9">
         <v>2.99E-4</v>
       </c>
-      <c r="Q53" s="7">
+      <c r="Q53" s="9">
         <v>2.57E-4</v>
       </c>
-      <c r="R53" s="7">
+      <c r="R53" s="9">
         <v>3.3E-4</v>
       </c>
     </row>
     <row r="54">
-      <c r="B54" s="7">
+      <c r="B54" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C54" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F54" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="G54" s="7">
+      <c r="G54" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="9">
         <v>2.7E-5</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="9">
         <v>3.9E-5</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="9">
         <v>2.32E-4</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="9">
         <v>2.2E-4</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="9">
         <v>2.49E-4</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N54" s="9">
         <v>2.95E-4</v>
       </c>
-      <c r="O54" s="7">
+      <c r="O54" s="9">
         <v>3.29E-4</v>
       </c>
-      <c r="P54" s="7">
+      <c r="P54" s="9">
         <v>2.34E-4</v>
       </c>
-      <c r="Q54" s="7">
+      <c r="Q54" s="9">
         <v>2.45E-4</v>
       </c>
-      <c r="R54" s="7">
+      <c r="R54" s="9">
         <v>3.16E-4</v>
       </c>
     </row>
     <row r="55">
-      <c r="B55" s="7">
+      <c r="B55" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C55" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D55" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="E55" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="F55" s="7">
+      <c r="E55" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="F55" s="9">
         <v>5.0E-5</v>
       </c>
-      <c r="G55" s="7">
+      <c r="G55" s="9">
         <v>3.9E-5</v>
       </c>
-      <c r="H55" s="7">
+      <c r="H55" s="9">
         <v>5.4E-5</v>
       </c>
-      <c r="I55" s="7">
+      <c r="I55" s="9">
         <v>6.4E-5</v>
       </c>
-      <c r="K55" s="7">
+      <c r="K55" s="9">
         <v>2.09E-4</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="9">
         <v>1.92E-4</v>
       </c>
-      <c r="M55" s="7">
+      <c r="M55" s="9">
         <v>2.28E-4</v>
       </c>
-      <c r="N55" s="7">
+      <c r="N55" s="9">
         <v>2.9E-4</v>
       </c>
-      <c r="O55" s="7">
+      <c r="O55" s="9">
         <v>3.32E-4</v>
       </c>
-      <c r="P55" s="7">
+      <c r="P55" s="9">
         <v>2.26E-4</v>
       </c>
-      <c r="Q55" s="7">
+      <c r="Q55" s="9">
         <v>2.04E-4</v>
       </c>
-      <c r="R55" s="7">
+      <c r="R55" s="9">
         <v>2.97E-4</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="7">
+      <c r="B56" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="C56" s="7">
+      <c r="C56" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="D56" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="E56" s="7">
+      <c r="D56" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="E56" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F56" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="G56" s="7">
+      <c r="G56" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="9">
         <v>4.5E-5</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="9">
         <v>5.0E-5</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="9">
         <v>2.3E-4</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="9">
         <v>2.11E-4</v>
       </c>
-      <c r="M56" s="7">
+      <c r="M56" s="9">
         <v>2.25E-4</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N56" s="9">
         <v>3.66E-4</v>
       </c>
-      <c r="O56" s="7">
+      <c r="O56" s="9">
         <v>3.09E-4</v>
       </c>
-      <c r="P56" s="7">
+      <c r="P56" s="9">
         <v>2.95E-4</v>
       </c>
-      <c r="Q56" s="7">
+      <c r="Q56" s="9">
         <v>2.03E-4</v>
       </c>
-      <c r="R56" s="7">
+      <c r="R56" s="9">
         <v>3.13E-4</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="7">
+      <c r="B57" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="9">
         <v>2.5E-5</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D57" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E57" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F57" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="G57" s="7">
+      <c r="G57" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="H57" s="7">
+      <c r="H57" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="I57" s="7">
+      <c r="I57" s="9">
         <v>2.4E-5</v>
       </c>
-      <c r="K57" s="7">
+      <c r="K57" s="9">
         <v>2.23E-4</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="9">
         <v>2.05E-4</v>
       </c>
-      <c r="M57" s="7">
+      <c r="M57" s="9">
         <v>2.48E-4</v>
       </c>
-      <c r="N57" s="7">
+      <c r="N57" s="9">
         <v>3.58E-4</v>
       </c>
-      <c r="O57" s="7">
+      <c r="O57" s="9">
         <v>3.09E-4</v>
       </c>
-      <c r="P57" s="7">
+      <c r="P57" s="9">
         <v>2.35E-4</v>
       </c>
-      <c r="Q57" s="7">
+      <c r="Q57" s="9">
         <v>1.98E-4</v>
       </c>
-      <c r="R57" s="7">
+      <c r="R57" s="9">
         <v>2.91E-4</v>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="7">
+      <c r="B58" s="9">
         <v>2.8E-5</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F58" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="G58" s="7">
+      <c r="G58" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="H58" s="7">
+      <c r="H58" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="K58" s="7">
+      <c r="K58" s="9">
         <v>2.42E-4</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="9">
         <v>2.24E-4</v>
       </c>
-      <c r="M58" s="7">
+      <c r="M58" s="9">
         <v>2.08E-4</v>
       </c>
-      <c r="N58" s="7">
+      <c r="N58" s="9">
         <v>3.52E-4</v>
       </c>
-      <c r="O58" s="7">
+      <c r="O58" s="9">
         <v>3.33E-4</v>
       </c>
-      <c r="P58" s="7">
+      <c r="P58" s="9">
         <v>1.78E-4</v>
       </c>
-      <c r="Q58" s="7">
+      <c r="Q58" s="9">
         <v>1.97E-4</v>
       </c>
-      <c r="R58" s="7">
+      <c r="R58" s="9">
         <v>2.95E-4</v>
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="C59" s="7">
+      <c r="B59" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="C59" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D59" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E59" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F59" s="9">
         <v>2.8E-5</v>
       </c>
-      <c r="G59" s="7">
+      <c r="G59" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="H59" s="7">
+      <c r="H59" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="I59" s="7">
+      <c r="I59" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="K59" s="7">
+      <c r="K59" s="9">
         <v>2.58E-4</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="9">
         <v>2.17E-4</v>
       </c>
-      <c r="M59" s="7">
+      <c r="M59" s="9">
         <v>2.33E-4</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N59" s="9">
         <v>3.02E-4</v>
       </c>
-      <c r="O59" s="7">
+      <c r="O59" s="9">
         <v>3.22E-4</v>
       </c>
-      <c r="P59" s="7">
+      <c r="P59" s="9">
         <v>1.89E-4</v>
       </c>
-      <c r="Q59" s="7">
+      <c r="Q59" s="9">
         <v>2.18E-4</v>
       </c>
-      <c r="R59" s="7">
+      <c r="R59" s="9">
         <v>2.69E-4</v>
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="7">
+      <c r="B60" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="C60" s="7">
+      <c r="C60" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="F60" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="G60" s="7">
+      <c r="F60" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="G60" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="H60" s="7">
+      <c r="H60" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="9">
         <v>5.7E-5</v>
       </c>
-      <c r="K60" s="7">
+      <c r="K60" s="9">
         <v>3.17E-4</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="9">
         <v>2.2E-4</v>
       </c>
-      <c r="M60" s="7">
+      <c r="M60" s="9">
         <v>2.34E-4</v>
       </c>
-      <c r="N60" s="7">
+      <c r="N60" s="9">
         <v>2.79E-4</v>
       </c>
-      <c r="O60" s="7">
+      <c r="O60" s="9">
         <v>3.72E-4</v>
       </c>
-      <c r="P60" s="7">
+      <c r="P60" s="9">
         <v>2.24E-4</v>
       </c>
-      <c r="Q60" s="7">
+      <c r="Q60" s="9">
         <v>2.02E-4</v>
       </c>
-      <c r="R60" s="7">
+      <c r="R60" s="9">
         <v>2.29E-4</v>
       </c>
     </row>
     <row r="61">
-      <c r="B61" s="7">
+      <c r="B61" s="9">
         <v>5.1E-5</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C61" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D61" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="E61" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="F61" s="7">
+      <c r="E61" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="F61" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="G61" s="7">
+      <c r="G61" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="H61" s="7">
+      <c r="H61" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="I61" s="7">
+      <c r="I61" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="K61" s="7">
+      <c r="K61" s="9">
         <v>3.29E-4</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L61" s="9">
         <v>2.31E-4</v>
       </c>
-      <c r="M61" s="7">
+      <c r="M61" s="9">
         <v>2.08E-4</v>
       </c>
-      <c r="N61" s="7">
+      <c r="N61" s="9">
         <v>3.41E-4</v>
       </c>
-      <c r="O61" s="7">
+      <c r="O61" s="9">
         <v>2.73E-4</v>
       </c>
-      <c r="P61" s="7">
+      <c r="P61" s="9">
         <v>2.02E-4</v>
       </c>
-      <c r="Q61" s="7">
+      <c r="Q61" s="9">
         <v>2.25E-4</v>
       </c>
-      <c r="R61" s="7">
+      <c r="R61" s="9">
         <v>2.65E-4</v>
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="7">
+      <c r="B62" s="9">
         <v>5.2E-5</v>
       </c>
-      <c r="C62" s="7">
+      <c r="C62" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="9">
         <v>2.5E-5</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F62" s="9">
         <v>5.0E-5</v>
       </c>
-      <c r="G62" s="7">
+      <c r="G62" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="H62" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="I62" s="7">
+      <c r="H62" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="I62" s="9">
         <v>5.8E-5</v>
       </c>
-      <c r="K62" s="7">
+      <c r="K62" s="9">
         <v>1.7E-4</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62" s="9">
         <v>2.46E-4</v>
       </c>
-      <c r="M62" s="7">
+      <c r="M62" s="9">
         <v>2.12E-4</v>
       </c>
-      <c r="N62" s="7">
+      <c r="N62" s="9">
         <v>2.89E-4</v>
       </c>
-      <c r="O62" s="7">
+      <c r="O62" s="9">
         <v>2.67E-4</v>
       </c>
-      <c r="P62" s="7">
+      <c r="P62" s="9">
         <v>1.96E-4</v>
       </c>
-      <c r="Q62" s="7">
+      <c r="Q62" s="9">
         <v>2.02E-4</v>
       </c>
-      <c r="R62" s="7">
+      <c r="R62" s="9">
         <v>2.76E-4</v>
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="7">
+      <c r="B63" s="9">
         <v>2.4E-5</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C63" s="9">
         <v>3.9E-5</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D63" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E63" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F63" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="G63" s="7">
+      <c r="G63" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="H63" s="7">
+      <c r="H63" s="9">
         <v>4.7E-5</v>
       </c>
-      <c r="I63" s="7">
+      <c r="I63" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="K63" s="7">
+      <c r="K63" s="9">
         <v>2.31E-4</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="9">
         <v>2.41E-4</v>
       </c>
-      <c r="M63" s="7">
+      <c r="M63" s="9">
         <v>2.08E-4</v>
       </c>
-      <c r="N63" s="7">
+      <c r="N63" s="9">
         <v>3.47E-4</v>
       </c>
-      <c r="O63" s="7">
+      <c r="O63" s="9">
         <v>2.18E-4</v>
       </c>
-      <c r="P63" s="7">
+      <c r="P63" s="9">
         <v>2.27E-4</v>
       </c>
-      <c r="Q63" s="7">
+      <c r="Q63" s="9">
         <v>1.9E-4</v>
       </c>
-      <c r="R63" s="7">
+      <c r="R63" s="9">
         <v>2.3E-4</v>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="7">
+      <c r="B64" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C64" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="E64" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="F64" s="7">
+      <c r="E64" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="F64" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="G64" s="7">
+      <c r="G64" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="H64" s="7">
+      <c r="H64" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="K64" s="7">
+      <c r="K64" s="9">
         <v>1.81E-4</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="9">
         <v>2.43E-4</v>
       </c>
-      <c r="M64" s="7">
+      <c r="M64" s="9">
         <v>2.07E-4</v>
       </c>
-      <c r="N64" s="7">
+      <c r="N64" s="9">
         <v>3.21E-4</v>
       </c>
-      <c r="O64" s="7">
+      <c r="O64" s="9">
         <v>3.31E-4</v>
       </c>
-      <c r="P64" s="7">
+      <c r="P64" s="9">
         <v>2.54E-4</v>
       </c>
-      <c r="Q64" s="7">
+      <c r="Q64" s="9">
         <v>2.48E-4</v>
       </c>
-      <c r="R64" s="7">
+      <c r="R64" s="9">
         <v>2.27E-4</v>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="7">
+      <c r="B65" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="C65" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="D65" s="7">
+      <c r="C65" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="D65" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E65" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F65" s="9">
         <v>4.5E-5</v>
       </c>
-      <c r="G65" s="7">
+      <c r="G65" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="H65" s="7">
+      <c r="H65" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="I65" s="7">
+      <c r="I65" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="K65" s="7">
+      <c r="K65" s="9">
         <v>2.5E-4</v>
       </c>
-      <c r="L65" s="7">
+      <c r="L65" s="9">
         <v>2.41E-4</v>
       </c>
-      <c r="M65" s="7">
+      <c r="M65" s="9">
         <v>2.12E-4</v>
       </c>
-      <c r="N65" s="7">
+      <c r="N65" s="9">
         <v>3.26E-4</v>
       </c>
-      <c r="O65" s="7">
+      <c r="O65" s="9">
         <v>2.23E-4</v>
       </c>
-      <c r="P65" s="7">
+      <c r="P65" s="9">
         <v>2.92E-4</v>
       </c>
-      <c r="Q65" s="7">
+      <c r="Q65" s="9">
         <v>2.05E-4</v>
       </c>
-      <c r="R65" s="7">
+      <c r="R65" s="9">
         <v>2.36E-4</v>
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="7">
+      <c r="B66" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C66" s="9">
         <v>2.8E-5</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F66" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="G66" s="7">
+      <c r="G66" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="H66" s="7">
+      <c r="H66" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="I66" s="7">
+      <c r="I66" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="K66" s="7">
+      <c r="K66" s="9">
         <v>1.84E-4</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L66" s="9">
         <v>2.39E-4</v>
       </c>
-      <c r="M66" s="7">
+      <c r="M66" s="9">
         <v>2.07E-4</v>
       </c>
-      <c r="N66" s="7">
+      <c r="N66" s="9">
         <v>4.23E-4</v>
       </c>
-      <c r="O66" s="7">
+      <c r="O66" s="9">
         <v>2.65E-4</v>
       </c>
-      <c r="P66" s="7">
+      <c r="P66" s="9">
         <v>2.96E-4</v>
       </c>
-      <c r="Q66" s="7">
+      <c r="Q66" s="9">
         <v>1.86E-4</v>
       </c>
-      <c r="R66" s="7">
+      <c r="R66" s="9">
         <v>2.19E-4</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="7">
+      <c r="B67" s="9">
         <v>2.8E-5</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C67" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D67" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="E67" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="F67" s="7">
+      <c r="E67" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="F67" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="G67" s="7">
+      <c r="G67" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="H67" s="7">
+      <c r="H67" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="I67" s="7">
+      <c r="I67" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="K67" s="7">
+      <c r="K67" s="9">
         <v>2.89E-4</v>
       </c>
-      <c r="L67" s="7">
+      <c r="L67" s="9">
         <v>2.41E-4</v>
       </c>
-      <c r="M67" s="7">
+      <c r="M67" s="9">
         <v>2.15E-4</v>
       </c>
-      <c r="N67" s="7">
+      <c r="N67" s="9">
         <v>2.39E-4</v>
       </c>
-      <c r="O67" s="7">
+      <c r="O67" s="9">
         <v>2.38E-4</v>
       </c>
-      <c r="P67" s="7">
+      <c r="P67" s="9">
         <v>2.61E-4</v>
       </c>
-      <c r="Q67" s="7">
+      <c r="Q67" s="9">
         <v>1.85E-4</v>
       </c>
-      <c r="R67" s="7">
+      <c r="R67" s="9">
         <v>2.27E-4</v>
       </c>
     </row>
     <row r="68">
-      <c r="B68" s="7">
+      <c r="B68" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="C68" s="7">
+      <c r="C68" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F68" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="G68" s="7">
+      <c r="G68" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="H68" s="7">
+      <c r="H68" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="I68" s="7">
+      <c r="I68" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="K68" s="7">
+      <c r="K68" s="9">
         <v>1.98E-4</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L68" s="9">
         <v>2.38E-4</v>
       </c>
-      <c r="M68" s="7">
+      <c r="M68" s="9">
         <v>2.09E-4</v>
       </c>
-      <c r="N68" s="7">
+      <c r="N68" s="9">
         <v>2.75E-4</v>
       </c>
-      <c r="O68" s="7">
+      <c r="O68" s="9">
         <v>1.87E-4</v>
       </c>
-      <c r="P68" s="7">
+      <c r="P68" s="9">
         <v>1.67E-4</v>
       </c>
-      <c r="Q68" s="7">
+      <c r="Q68" s="9">
         <v>1.78E-4</v>
       </c>
-      <c r="R68" s="7">
+      <c r="R68" s="9">
         <v>2.19E-4</v>
       </c>
     </row>
     <row r="69">
-      <c r="B69" s="7">
+      <c r="B69" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C69" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D69" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E69" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="F69" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="G69" s="7">
+      <c r="F69" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="G69" s="9">
         <v>4.2E-5</v>
       </c>
-      <c r="H69" s="7">
+      <c r="H69" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="I69" s="7">
+      <c r="I69" s="9">
         <v>6.9E-5</v>
       </c>
-      <c r="K69" s="7">
+      <c r="K69" s="9">
         <v>3.01E-4</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L69" s="9">
         <v>2.37E-4</v>
       </c>
-      <c r="M69" s="7">
+      <c r="M69" s="9">
         <v>2.09E-4</v>
       </c>
-      <c r="N69" s="7">
+      <c r="N69" s="9">
         <v>2.32E-4</v>
       </c>
-      <c r="O69" s="7">
+      <c r="O69" s="9">
         <v>1.87E-4</v>
       </c>
-      <c r="P69" s="7">
+      <c r="P69" s="9">
         <v>2.11E-4</v>
       </c>
-      <c r="Q69" s="7">
+      <c r="Q69" s="9">
         <v>1.97E-4</v>
       </c>
-      <c r="R69" s="7">
+      <c r="R69" s="9">
         <v>2.22E-4</v>
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="7">
+      <c r="B70" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="9">
         <v>2.5E-5</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F70" s="9">
         <v>2.7E-5</v>
       </c>
-      <c r="G70" s="7">
+      <c r="G70" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="H70" s="7">
+      <c r="H70" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="I70" s="7">
+      <c r="I70" s="9">
         <v>5.6E-5</v>
       </c>
-      <c r="K70" s="7">
+      <c r="K70" s="9">
         <v>2.01E-4</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L70" s="9">
         <v>2.37E-4</v>
       </c>
-      <c r="M70" s="7">
+      <c r="M70" s="9">
         <v>2.29E-4</v>
       </c>
-      <c r="N70" s="7">
+      <c r="N70" s="9">
         <v>2.72E-4</v>
       </c>
-      <c r="O70" s="7">
+      <c r="O70" s="9">
         <v>1.86E-4</v>
       </c>
-      <c r="P70" s="7">
+      <c r="P70" s="9">
         <v>1.67E-4</v>
       </c>
-      <c r="Q70" s="7">
+      <c r="Q70" s="9">
         <v>1.96E-4</v>
       </c>
-      <c r="R70" s="7">
+      <c r="R70" s="9">
         <v>2.17E-4</v>
       </c>
     </row>
     <row r="71">
-      <c r="B71" s="7">
+      <c r="B71" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="C71" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="D71" s="7">
+      <c r="C71" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="D71" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E71" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F71" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="G71" s="7">
+      <c r="G71" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="H71" s="7">
+      <c r="H71" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="I71" s="7">
+      <c r="I71" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="K71" s="7">
+      <c r="K71" s="9">
         <v>2.41E-4</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71" s="9">
         <v>2.03E-4</v>
       </c>
-      <c r="M71" s="7">
+      <c r="M71" s="9">
         <v>2.26E-4</v>
       </c>
-      <c r="N71" s="7">
+      <c r="N71" s="9">
         <v>2.51E-4</v>
       </c>
-      <c r="O71" s="7">
+      <c r="O71" s="9">
         <v>1.97E-4</v>
       </c>
-      <c r="P71" s="7">
+      <c r="P71" s="9">
         <v>2.08E-4</v>
       </c>
-      <c r="Q71" s="7">
+      <c r="Q71" s="9">
         <v>2.22E-4</v>
       </c>
-      <c r="R71" s="7">
+      <c r="R71" s="9">
         <v>2.27E-4</v>
       </c>
     </row>
     <row r="72">
-      <c r="B72" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="C72" s="7">
+      <c r="B72" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="C72" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F72" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="G72" s="7">
+      <c r="G72" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="H72" s="7">
+      <c r="H72" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="I72" s="7">
+      <c r="I72" s="9">
         <v>4.4E-5</v>
       </c>
-      <c r="K72" s="7">
+      <c r="K72" s="9">
         <v>2.21E-4</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L72" s="9">
         <v>1.83E-4</v>
       </c>
-      <c r="M72" s="7">
+      <c r="M72" s="9">
         <v>2.07E-4</v>
       </c>
-      <c r="N72" s="7">
+      <c r="N72" s="9">
         <v>2.2E-4</v>
       </c>
-      <c r="O72" s="7">
+      <c r="O72" s="9">
         <v>2.72E-4</v>
       </c>
-      <c r="P72" s="7">
+      <c r="P72" s="9">
         <v>1.74E-4</v>
       </c>
-      <c r="Q72" s="7">
+      <c r="Q72" s="9">
         <v>1.98E-4</v>
       </c>
-      <c r="R72" s="7">
+      <c r="R72" s="9">
         <v>2.19E-4</v>
       </c>
     </row>
     <row r="73">
-      <c r="B73" s="7">
+      <c r="B73" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="C73" s="7">
+      <c r="C73" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D73" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E73" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F73" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="G73" s="7">
+      <c r="G73" s="9">
         <v>2.5E-5</v>
       </c>
-      <c r="H73" s="7">
+      <c r="H73" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="I73" s="7">
+      <c r="I73" s="9">
         <v>4.2E-5</v>
       </c>
-      <c r="K73" s="7">
+      <c r="K73" s="9">
         <v>1.91E-4</v>
       </c>
-      <c r="L73" s="7">
+      <c r="L73" s="9">
         <v>1.61E-4</v>
       </c>
-      <c r="M73" s="7">
+      <c r="M73" s="9">
         <v>2.06E-4</v>
       </c>
-      <c r="N73" s="7">
+      <c r="N73" s="9">
         <v>2.48E-4</v>
       </c>
-      <c r="O73" s="7">
+      <c r="O73" s="9">
         <v>1.94E-4</v>
       </c>
-      <c r="P73" s="7">
+      <c r="P73" s="9">
         <v>2.61E-4</v>
       </c>
-      <c r="Q73" s="7">
+      <c r="Q73" s="9">
         <v>1.94E-4</v>
       </c>
-      <c r="R73" s="7">
+      <c r="R73" s="9">
         <v>2.18E-4</v>
       </c>
     </row>
     <row r="74">
-      <c r="B74" s="7">
+      <c r="B74" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="C74" s="7">
+      <c r="C74" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F74" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="G74" s="7">
+      <c r="G74" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="H74" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="I74" s="7">
+      <c r="H74" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="I74" s="9">
         <v>4.2E-5</v>
       </c>
-      <c r="K74" s="7">
+      <c r="K74" s="9">
         <v>2.16E-4</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L74" s="9">
         <v>1.57E-4</v>
       </c>
-      <c r="M74" s="7">
+      <c r="M74" s="9">
         <v>1.96E-4</v>
       </c>
-      <c r="N74" s="7">
+      <c r="N74" s="9">
         <v>2.33E-4</v>
       </c>
-      <c r="O74" s="7">
+      <c r="O74" s="9">
         <v>1.92E-4</v>
       </c>
-      <c r="P74" s="7">
+      <c r="P74" s="9">
         <v>2.17E-4</v>
       </c>
-      <c r="Q74" s="7">
+      <c r="Q74" s="9">
         <v>2.1E-4</v>
       </c>
-      <c r="R74" s="7">
+      <c r="R74" s="9">
         <v>2.11E-4</v>
       </c>
     </row>
     <row r="75">
-      <c r="B75" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="C75" s="7">
+      <c r="B75" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="C75" s="9">
         <v>3.9E-5</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D75" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E75" s="9">
         <v>2.5E-5</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F75" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="G75" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="H75" s="7">
+      <c r="G75" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="H75" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="I75" s="7">
+      <c r="I75" s="9">
         <v>5.7E-5</v>
       </c>
-      <c r="K75" s="7">
+      <c r="K75" s="9">
         <v>1.81E-4</v>
       </c>
-      <c r="L75" s="7">
+      <c r="L75" s="9">
         <v>1.85E-4</v>
       </c>
-      <c r="M75" s="7">
+      <c r="M75" s="9">
         <v>1.91E-4</v>
       </c>
-      <c r="N75" s="7">
+      <c r="N75" s="9">
         <v>1.95E-4</v>
       </c>
-      <c r="O75" s="7">
+      <c r="O75" s="9">
         <v>2.15E-4</v>
       </c>
-      <c r="P75" s="7">
+      <c r="P75" s="9">
         <v>2.25E-4</v>
       </c>
-      <c r="Q75" s="7">
+      <c r="Q75" s="9">
         <v>2.0E-4</v>
       </c>
-      <c r="R75" s="7">
+      <c r="R75" s="9">
         <v>2.05E-4</v>
       </c>
     </row>
     <row r="76">
-      <c r="B76" s="7">
+      <c r="B76" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="C76" s="7">
+      <c r="C76" s="9">
         <v>3.9E-5</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F76" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="G76" s="7">
+      <c r="G76" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="H76" s="7">
+      <c r="H76" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="I76" s="7">
+      <c r="I76" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="K76" s="7">
+      <c r="K76" s="9">
         <v>2.59E-4</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L76" s="9">
         <v>1.64E-4</v>
       </c>
-      <c r="M76" s="7">
+      <c r="M76" s="9">
         <v>1.9E-4</v>
       </c>
-      <c r="N76" s="7">
+      <c r="N76" s="9">
         <v>1.8E-4</v>
       </c>
-      <c r="O76" s="7">
+      <c r="O76" s="9">
         <v>2.14E-4</v>
       </c>
-      <c r="P76" s="7">
+      <c r="P76" s="9">
         <v>2.61E-4</v>
       </c>
-      <c r="Q76" s="7">
+      <c r="Q76" s="9">
         <v>1.95E-4</v>
       </c>
-      <c r="R76" s="7">
+      <c r="R76" s="9">
         <v>2.19E-4</v>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="7">
+      <c r="B77" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="C77" s="7">
+      <c r="C77" s="9">
         <v>2.5E-5</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D77" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E77" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F77" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="G77" s="7">
+      <c r="G77" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="H77" s="7">
+      <c r="H77" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="I77" s="7">
+      <c r="I77" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="K77" s="7">
+      <c r="K77" s="9">
         <v>2.27E-4</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L77" s="9">
         <v>1.81E-4</v>
       </c>
-      <c r="M77" s="7">
+      <c r="M77" s="9">
         <v>2.6E-4</v>
       </c>
-      <c r="N77" s="7">
+      <c r="N77" s="9">
         <v>1.97E-4</v>
       </c>
-      <c r="O77" s="7">
+      <c r="O77" s="9">
         <v>2.29E-4</v>
       </c>
-      <c r="P77" s="7">
+      <c r="P77" s="9">
         <v>1.92E-4</v>
       </c>
-      <c r="Q77" s="7">
+      <c r="Q77" s="9">
         <v>1.96E-4</v>
       </c>
-      <c r="R77" s="7">
+      <c r="R77" s="9">
         <v>2.19E-4</v>
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="7">
+      <c r="B78" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="C78" s="7">
+      <c r="C78" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="9">
         <v>2.7E-5</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F78" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="G78" s="7">
+      <c r="G78" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="H78" s="7">
+      <c r="H78" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="I78" s="7">
+      <c r="I78" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="K78" s="7">
+      <c r="K78" s="9">
         <v>2.26E-4</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L78" s="9">
         <v>1.93E-4</v>
       </c>
-      <c r="M78" s="7">
+      <c r="M78" s="9">
         <v>2.6E-4</v>
       </c>
-      <c r="N78" s="7">
+      <c r="N78" s="9">
         <v>1.89E-4</v>
       </c>
-      <c r="O78" s="7">
+      <c r="O78" s="9">
         <v>2.0E-4</v>
       </c>
-      <c r="P78" s="7">
+      <c r="P78" s="9">
         <v>2.25E-4</v>
       </c>
-      <c r="Q78" s="7">
+      <c r="Q78" s="9">
         <v>1.96E-4</v>
       </c>
-      <c r="R78" s="7">
+      <c r="R78" s="9">
         <v>2.19E-4</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="7">
+      <c r="B79" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="C79" s="7">
+      <c r="C79" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D79" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E79" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F79" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="G79" s="7">
+      <c r="G79" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="H79" s="7">
+      <c r="H79" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="I79" s="7">
+      <c r="I79" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="K79" s="7">
+      <c r="K79" s="9">
         <v>2.21E-4</v>
       </c>
-      <c r="L79" s="7">
+      <c r="L79" s="9">
         <v>1.85E-4</v>
       </c>
-      <c r="M79" s="7">
+      <c r="M79" s="9">
         <v>2.21E-4</v>
       </c>
-      <c r="N79" s="7">
+      <c r="N79" s="9">
         <v>1.9E-4</v>
       </c>
-      <c r="O79" s="7">
+      <c r="O79" s="9">
         <v>2.07E-4</v>
       </c>
-      <c r="P79" s="7">
+      <c r="P79" s="9">
         <v>2.29E-4</v>
       </c>
-      <c r="Q79" s="7">
+      <c r="Q79" s="9">
         <v>1.99E-4</v>
       </c>
-      <c r="R79" s="7">
+      <c r="R79" s="9">
         <v>2.11E-4</v>
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="7">
+      <c r="B80" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="C80" s="7">
+      <c r="C80" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="9">
         <v>2.4E-5</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="9">
         <v>3.9E-5</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F80" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="G80" s="7">
+      <c r="G80" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="H80" s="7">
+      <c r="H80" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="I80" s="7">
+      <c r="I80" s="9">
         <v>2.8E-5</v>
       </c>
-      <c r="K80" s="7">
+      <c r="K80" s="9">
         <v>1.9E-4</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L80" s="9">
         <v>1.76E-4</v>
       </c>
-      <c r="M80" s="7">
+      <c r="M80" s="9">
         <v>2.22E-4</v>
       </c>
-      <c r="N80" s="7">
+      <c r="N80" s="9">
         <v>2.17E-4</v>
       </c>
-      <c r="O80" s="7">
+      <c r="O80" s="9">
         <v>2.0E-4</v>
       </c>
-      <c r="P80" s="7">
+      <c r="P80" s="9">
         <v>2.27E-4</v>
       </c>
-      <c r="Q80" s="7">
+      <c r="Q80" s="9">
         <v>2.0E-4</v>
       </c>
-      <c r="R80" s="7">
+      <c r="R80" s="9">
         <v>2.15E-4</v>
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="7">
+      <c r="B81" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D81" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E81" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F81" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="G81" s="7">
+      <c r="G81" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="H81" s="7">
+      <c r="H81" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="I81" s="7">
+      <c r="I81" s="9">
         <v>4.0E-5</v>
       </c>
-      <c r="K81" s="7">
+      <c r="K81" s="9">
         <v>1.91E-4</v>
       </c>
-      <c r="L81" s="7">
+      <c r="L81" s="9">
         <v>1.73E-4</v>
       </c>
-      <c r="M81" s="7">
+      <c r="M81" s="9">
         <v>2.24E-4</v>
       </c>
-      <c r="N81" s="7">
+      <c r="N81" s="9">
         <v>2.09E-4</v>
       </c>
-      <c r="O81" s="7">
+      <c r="O81" s="9">
         <v>2.24E-4</v>
       </c>
-      <c r="P81" s="7">
+      <c r="P81" s="9">
         <v>2.3E-4</v>
       </c>
-      <c r="Q81" s="7">
+      <c r="Q81" s="9">
         <v>2.24E-4</v>
       </c>
-      <c r="R81" s="7">
+      <c r="R81" s="9">
         <v>2.03E-4</v>
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="7">
+      <c r="B82" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="9">
         <v>4.8E-5</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F82" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="G82" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="H82" s="7">
+      <c r="G82" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="H82" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="I82" s="7">
+      <c r="I82" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="K82" s="7">
+      <c r="K82" s="9">
         <v>2.34E-4</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L82" s="9">
         <v>1.75E-4</v>
       </c>
-      <c r="M82" s="7">
+      <c r="M82" s="9">
         <v>2.22E-4</v>
       </c>
-      <c r="N82" s="7">
+      <c r="N82" s="9">
         <v>2.08E-4</v>
       </c>
-      <c r="O82" s="7">
+      <c r="O82" s="9">
         <v>1.95E-4</v>
       </c>
-      <c r="P82" s="7">
+      <c r="P82" s="9">
         <v>2.42E-4</v>
       </c>
-      <c r="Q82" s="7">
+      <c r="Q82" s="9">
         <v>1.91E-4</v>
       </c>
-      <c r="R82" s="7">
+      <c r="R82" s="9">
         <v>1.96E-4</v>
       </c>
     </row>
     <row r="83">
-      <c r="B83" s="7">
+      <c r="B83" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D83" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="E83" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="F83" s="7">
+      <c r="E83" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="F83" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="G83" s="7">
+      <c r="G83" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="H83" s="7">
+      <c r="H83" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="I83" s="7">
+      <c r="I83" s="9">
         <v>3.9E-5</v>
       </c>
-      <c r="K83" s="7">
+      <c r="K83" s="9">
         <v>2.27E-4</v>
       </c>
-      <c r="L83" s="7">
+      <c r="L83" s="9">
         <v>1.75E-4</v>
       </c>
-      <c r="M83" s="7">
+      <c r="M83" s="9">
         <v>2.24E-4</v>
       </c>
-      <c r="N83" s="7">
+      <c r="N83" s="9">
         <v>2.02E-4</v>
       </c>
-      <c r="O83" s="7">
+      <c r="O83" s="9">
         <v>2.07E-4</v>
       </c>
-      <c r="P83" s="7">
+      <c r="P83" s="9">
         <v>2.5E-4</v>
       </c>
-      <c r="Q83" s="7">
+      <c r="Q83" s="9">
         <v>2.64E-4</v>
       </c>
-      <c r="R83" s="7">
+      <c r="R83" s="9">
         <v>1.98E-4</v>
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="7">
+      <c r="B84" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F84" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="G84" s="7">
+      <c r="G84" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="I84" s="7">
+      <c r="I84" s="9">
         <v>6.2E-5</v>
       </c>
-      <c r="K84" s="7">
+      <c r="K84" s="9">
         <v>2.41E-4</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L84" s="9">
         <v>1.73E-4</v>
       </c>
-      <c r="M84" s="7">
+      <c r="M84" s="9">
         <v>2.22E-4</v>
       </c>
-      <c r="N84" s="7">
+      <c r="N84" s="9">
         <v>2.26E-4</v>
       </c>
-      <c r="O84" s="7">
+      <c r="O84" s="9">
         <v>2.47E-4</v>
       </c>
-      <c r="P84" s="7">
+      <c r="P84" s="9">
         <v>2.43E-4</v>
       </c>
-      <c r="Q84" s="7">
+      <c r="Q84" s="9">
         <v>2.44E-4</v>
       </c>
-      <c r="R84" s="7">
+      <c r="R84" s="9">
         <v>2.0E-4</v>
       </c>
     </row>
     <row r="85">
-      <c r="B85" s="7">
+      <c r="B85" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="C85" s="7">
+      <c r="C85" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D85" s="9">
         <v>4.6E-5</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E85" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F85" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G85" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="H85" s="7">
+      <c r="H85" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="I85" s="7">
+      <c r="I85" s="9">
         <v>4.6E-5</v>
       </c>
-      <c r="K85" s="7">
+      <c r="K85" s="9">
         <v>2.22E-4</v>
       </c>
-      <c r="L85" s="7">
+      <c r="L85" s="9">
         <v>1.75E-4</v>
       </c>
-      <c r="M85" s="7">
+      <c r="M85" s="9">
         <v>2.52E-4</v>
       </c>
-      <c r="N85" s="7">
+      <c r="N85" s="9">
         <v>2.0E-4</v>
       </c>
-      <c r="O85" s="7">
+      <c r="O85" s="9">
         <v>2.42E-4</v>
       </c>
-      <c r="P85" s="7">
+      <c r="P85" s="9">
         <v>2.2E-4</v>
       </c>
-      <c r="Q85" s="7">
+      <c r="Q85" s="9">
         <v>2.48E-4</v>
       </c>
-      <c r="R85" s="7">
+      <c r="R85" s="9">
         <v>2.02E-4</v>
       </c>
     </row>
     <row r="86">
-      <c r="B86" s="7">
+      <c r="B86" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="C86" s="7">
+      <c r="C86" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="D86" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="E86" s="7">
+      <c r="D86" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="E86" s="9">
         <v>4.3E-5</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F86" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G86" s="9">
         <v>4.5E-5</v>
       </c>
-      <c r="H86" s="7">
+      <c r="H86" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="I86" s="7">
+      <c r="I86" s="9">
         <v>4.2E-5</v>
       </c>
-      <c r="K86" s="7">
+      <c r="K86" s="9">
         <v>2.18E-4</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L86" s="9">
         <v>1.74E-4</v>
       </c>
-      <c r="M86" s="7">
+      <c r="M86" s="9">
         <v>2.8E-4</v>
       </c>
-      <c r="N86" s="7">
+      <c r="N86" s="9">
         <v>2.04E-4</v>
       </c>
-      <c r="O86" s="7">
+      <c r="O86" s="9">
         <v>2.25E-4</v>
       </c>
-      <c r="P86" s="7">
+      <c r="P86" s="9">
         <v>2.2E-4</v>
       </c>
-      <c r="Q86" s="7">
+      <c r="Q86" s="9">
         <v>2.15E-4</v>
       </c>
-      <c r="R86" s="7">
+      <c r="R86" s="9">
         <v>2.03E-4</v>
       </c>
     </row>
     <row r="87">
-      <c r="B87" s="7">
+      <c r="B87" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="C87" s="7">
+      <c r="C87" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D87" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E87" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F87" s="9">
         <v>2.1E-5</v>
       </c>
-      <c r="G87" s="7">
+      <c r="G87" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="H87" s="7">
+      <c r="H87" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="I87" s="7">
+      <c r="I87" s="9">
         <v>2.8E-5</v>
       </c>
-      <c r="K87" s="7">
+      <c r="K87" s="9">
         <v>2.23E-4</v>
       </c>
-      <c r="L87" s="7">
+      <c r="L87" s="9">
         <v>1.75E-4</v>
       </c>
-      <c r="M87" s="7">
+      <c r="M87" s="9">
         <v>2.47E-4</v>
       </c>
-      <c r="N87" s="7">
+      <c r="N87" s="9">
         <v>2.0E-4</v>
       </c>
-      <c r="O87" s="7">
+      <c r="O87" s="9">
         <v>1.66E-4</v>
       </c>
-      <c r="P87" s="7">
+      <c r="P87" s="9">
         <v>2.18E-4</v>
       </c>
-      <c r="Q87" s="7">
+      <c r="Q87" s="9">
         <v>1.79E-4</v>
       </c>
-      <c r="R87" s="7">
+      <c r="R87" s="9">
         <v>1.99E-4</v>
       </c>
     </row>
     <row r="88">
-      <c r="B88" s="7">
+      <c r="B88" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="D88" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="E88" s="7">
+      <c r="D88" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="E88" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F88" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G88" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="H88" s="7">
+      <c r="H88" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="I88" s="7">
+      <c r="I88" s="9">
         <v>2.7E-5</v>
       </c>
-      <c r="K88" s="7">
+      <c r="K88" s="9">
         <v>2.53E-4</v>
       </c>
-      <c r="L88" s="7">
+      <c r="L88" s="9">
         <v>1.77E-4</v>
       </c>
-      <c r="M88" s="7">
+      <c r="M88" s="9">
         <v>2.21E-4</v>
       </c>
-      <c r="N88" s="7">
+      <c r="N88" s="9">
         <v>1.93E-4</v>
       </c>
-      <c r="O88" s="7">
+      <c r="O88" s="9">
         <v>2.16E-4</v>
       </c>
-      <c r="P88" s="7">
+      <c r="P88" s="9">
         <v>1.88E-4</v>
       </c>
-      <c r="Q88" s="7">
+      <c r="Q88" s="9">
         <v>1.69E-4</v>
       </c>
-      <c r="R88" s="7">
+      <c r="R88" s="9">
         <v>2.01E-4</v>
       </c>
     </row>
     <row r="89">
-      <c r="B89" s="7">
+      <c r="B89" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D89" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E89" s="9">
         <v>2.4E-5</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F89" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G89" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="H89" s="7">
+      <c r="H89" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="I89" s="7">
+      <c r="I89" s="9">
         <v>6.1E-5</v>
       </c>
-      <c r="K89" s="7">
+      <c r="K89" s="9">
         <v>2.07E-4</v>
       </c>
-      <c r="L89" s="7">
+      <c r="L89" s="9">
         <v>1.76E-4</v>
       </c>
-      <c r="M89" s="7">
+      <c r="M89" s="9">
         <v>2.1E-4</v>
       </c>
-      <c r="N89" s="7">
+      <c r="N89" s="9">
         <v>1.9E-4</v>
       </c>
-      <c r="O89" s="7">
+      <c r="O89" s="9">
         <v>1.79E-4</v>
       </c>
-      <c r="P89" s="7">
+      <c r="P89" s="9">
         <v>2.03E-4</v>
       </c>
-      <c r="Q89" s="7">
+      <c r="Q89" s="9">
         <v>1.94E-4</v>
       </c>
-      <c r="R89" s="7">
+      <c r="R89" s="9">
         <v>2.15E-4</v>
       </c>
     </row>
     <row r="90">
-      <c r="B90" s="7">
+      <c r="B90" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F90" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="G90" s="7">
+      <c r="G90" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="H90" s="7">
+      <c r="H90" s="9">
         <v>2.4E-5</v>
       </c>
-      <c r="I90" s="7">
+      <c r="I90" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="K90" s="7">
+      <c r="K90" s="9">
         <v>1.9E-4</v>
       </c>
-      <c r="L90" s="7">
+      <c r="L90" s="9">
         <v>1.78E-4</v>
       </c>
-      <c r="M90" s="7">
+      <c r="M90" s="9">
         <v>2.0E-4</v>
       </c>
-      <c r="N90" s="7">
+      <c r="N90" s="9">
         <v>2.07E-4</v>
       </c>
-      <c r="O90" s="7">
+      <c r="O90" s="9">
         <v>1.8E-4</v>
       </c>
-      <c r="P90" s="7">
+      <c r="P90" s="9">
         <v>1.56E-4</v>
       </c>
-      <c r="Q90" s="7">
+      <c r="Q90" s="9">
         <v>1.82E-4</v>
       </c>
-      <c r="R90" s="7">
+      <c r="R90" s="9">
         <v>1.89E-4</v>
       </c>
     </row>
     <row r="91">
-      <c r="B91" s="7">
+      <c r="B91" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D91" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E91" s="9">
         <v>3.0E-5</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F91" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="G91" s="7">
+      <c r="G91" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="H91" s="7">
+      <c r="H91" s="9">
         <v>1.5E-5</v>
       </c>
-      <c r="I91" s="7">
+      <c r="I91" s="9">
         <v>5.6E-5</v>
       </c>
-      <c r="K91" s="7">
+      <c r="K91" s="9">
         <v>2.29E-4</v>
       </c>
-      <c r="L91" s="7">
+      <c r="L91" s="9">
         <v>1.78E-4</v>
       </c>
-      <c r="M91" s="7">
+      <c r="M91" s="9">
         <v>1.85E-4</v>
       </c>
-      <c r="N91" s="7">
+      <c r="N91" s="9">
         <v>1.74E-4</v>
       </c>
-      <c r="O91" s="7">
+      <c r="O91" s="9">
         <v>1.89E-4</v>
       </c>
-      <c r="P91" s="7">
+      <c r="P91" s="9">
         <v>1.66E-4</v>
       </c>
-      <c r="Q91" s="7">
+      <c r="Q91" s="9">
         <v>1.83E-4</v>
       </c>
-      <c r="R91" s="7">
+      <c r="R91" s="9">
         <v>1.89E-4</v>
       </c>
     </row>
     <row r="92">
-      <c r="B92" s="7">
+      <c r="B92" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="C92" s="7">
+      <c r="C92" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F92" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="G92" s="7">
+      <c r="G92" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="H92" s="7">
+      <c r="H92" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="I92" s="7">
+      <c r="I92" s="9">
         <v>4.0E-5</v>
       </c>
-      <c r="K92" s="7">
+      <c r="K92" s="9">
         <v>2.35E-4</v>
       </c>
-      <c r="L92" s="7">
+      <c r="L92" s="9">
         <v>1.62E-4</v>
       </c>
-      <c r="M92" s="7">
+      <c r="M92" s="9">
         <v>1.74E-4</v>
       </c>
-      <c r="N92" s="7">
+      <c r="N92" s="9">
         <v>1.95E-4</v>
       </c>
-      <c r="O92" s="7">
+      <c r="O92" s="9">
         <v>1.81E-4</v>
       </c>
-      <c r="P92" s="7">
+      <c r="P92" s="9">
         <v>1.7E-4</v>
       </c>
-      <c r="Q92" s="7">
+      <c r="Q92" s="9">
         <v>1.99E-4</v>
       </c>
-      <c r="R92" s="7">
+      <c r="R92" s="9">
         <v>1.98E-4</v>
       </c>
     </row>
     <row r="93">
-      <c r="B93" s="7">
+      <c r="B93" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="C93" s="7">
+      <c r="C93" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D93" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E93" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F93" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="G93" s="7">
+      <c r="G93" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="H93" s="7">
+      <c r="H93" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="I93" s="7">
+      <c r="I93" s="9">
         <v>4.3E-5</v>
       </c>
-      <c r="K93" s="7">
+      <c r="K93" s="9">
         <v>2.27E-4</v>
       </c>
-      <c r="L93" s="7">
+      <c r="L93" s="9">
         <v>1.61E-4</v>
       </c>
-      <c r="M93" s="7">
+      <c r="M93" s="9">
         <v>1.8E-4</v>
       </c>
-      <c r="N93" s="7">
+      <c r="N93" s="9">
         <v>1.78E-4</v>
       </c>
-      <c r="O93" s="7">
+      <c r="O93" s="9">
         <v>2.19E-4</v>
       </c>
-      <c r="P93" s="7">
+      <c r="P93" s="9">
         <v>1.66E-4</v>
       </c>
-      <c r="Q93" s="7">
+      <c r="Q93" s="9">
         <v>1.79E-4</v>
       </c>
-      <c r="R93" s="7">
+      <c r="R93" s="9">
         <v>1.91E-4</v>
       </c>
     </row>
     <row r="94">
-      <c r="B94" s="7">
+      <c r="B94" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="C94" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="D94" s="7">
+      <c r="C94" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="D94" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F94" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="G94" s="7">
+      <c r="G94" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="H94" s="7">
+      <c r="H94" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="I94" s="7">
+      <c r="I94" s="9">
         <v>2.5E-5</v>
       </c>
-      <c r="K94" s="7">
+      <c r="K94" s="9">
         <v>2.18E-4</v>
       </c>
-      <c r="L94" s="7">
+      <c r="L94" s="9">
         <v>1.62E-4</v>
       </c>
-      <c r="M94" s="7">
+      <c r="M94" s="9">
         <v>1.8E-4</v>
       </c>
-      <c r="N94" s="7">
+      <c r="N94" s="9">
         <v>1.75E-4</v>
       </c>
-      <c r="O94" s="7">
+      <c r="O94" s="9">
         <v>3.04E-4</v>
       </c>
-      <c r="P94" s="7">
+      <c r="P94" s="9">
         <v>1.67E-4</v>
       </c>
-      <c r="Q94" s="7">
+      <c r="Q94" s="9">
         <v>1.66E-4</v>
       </c>
-      <c r="R94" s="7">
+      <c r="R94" s="9">
         <v>1.95E-4</v>
       </c>
     </row>
     <row r="95">
-      <c r="B95" s="7">
+      <c r="B95" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D95" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E95" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F95" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="G95" s="7">
+      <c r="G95" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="H95" s="7">
+      <c r="H95" s="9">
         <v>2.7E-5</v>
       </c>
-      <c r="I95" s="7">
+      <c r="I95" s="9">
         <v>3.9E-5</v>
       </c>
-      <c r="K95" s="7">
+      <c r="K95" s="9">
         <v>2.32E-4</v>
       </c>
-      <c r="L95" s="7">
+      <c r="L95" s="9">
         <v>1.58E-4</v>
       </c>
-      <c r="M95" s="7">
+      <c r="M95" s="9">
         <v>1.77E-4</v>
       </c>
-      <c r="N95" s="7">
+      <c r="N95" s="9">
         <v>1.76E-4</v>
       </c>
-      <c r="O95" s="7">
+      <c r="O95" s="9">
         <v>2.46E-4</v>
       </c>
-      <c r="P95" s="7">
+      <c r="P95" s="9">
         <v>1.93E-4</v>
       </c>
-      <c r="Q95" s="7">
+      <c r="Q95" s="9">
         <v>1.68E-4</v>
       </c>
-      <c r="R95" s="7">
+      <c r="R95" s="9">
         <v>2.03E-4</v>
       </c>
     </row>
     <row r="96">
-      <c r="B96" s="7">
+      <c r="B96" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="E96" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="F96" s="7">
+      <c r="E96" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="F96" s="9">
         <v>5.0E-5</v>
       </c>
-      <c r="G96" s="7">
+      <c r="G96" s="9">
         <v>3.9E-5</v>
       </c>
-      <c r="H96" s="7">
+      <c r="H96" s="9">
         <v>5.4E-5</v>
       </c>
-      <c r="I96" s="7">
+      <c r="I96" s="9">
         <v>6.4E-5</v>
       </c>
-      <c r="K96" s="7">
+      <c r="K96" s="9">
         <v>2.22E-4</v>
       </c>
-      <c r="L96" s="7">
+      <c r="L96" s="9">
         <v>1.65E-4</v>
       </c>
-      <c r="M96" s="7">
+      <c r="M96" s="9">
         <v>1.98E-4</v>
       </c>
-      <c r="N96" s="7">
+      <c r="N96" s="9">
         <v>1.56E-4</v>
       </c>
-      <c r="O96" s="7">
+      <c r="O96" s="9">
         <v>2.27E-4</v>
       </c>
-      <c r="P96" s="7">
+      <c r="P96" s="9">
         <v>1.91E-4</v>
       </c>
-      <c r="Q96" s="7">
+      <c r="Q96" s="9">
         <v>1.66E-4</v>
       </c>
-      <c r="R96" s="7">
+      <c r="R96" s="9">
         <v>2.18E-4</v>
       </c>
     </row>
     <row r="97">
-      <c r="B97" s="7">
+      <c r="B97" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="D97" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="E97" s="7">
+      <c r="D97" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="E97" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="F97" s="7">
+      <c r="F97" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="G97" s="7">
+      <c r="G97" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="H97" s="7">
+      <c r="H97" s="9">
         <v>4.5E-5</v>
       </c>
-      <c r="I97" s="7">
+      <c r="I97" s="9">
         <v>5.0E-5</v>
       </c>
-      <c r="K97" s="7">
+      <c r="K97" s="9">
         <v>2.01E-4</v>
       </c>
-      <c r="L97" s="7">
+      <c r="L97" s="9">
         <v>1.65E-4</v>
       </c>
-      <c r="M97" s="7">
+      <c r="M97" s="9">
         <v>1.95E-4</v>
       </c>
-      <c r="N97" s="7">
+      <c r="N97" s="9">
         <v>1.77E-4</v>
       </c>
-      <c r="O97" s="7">
+      <c r="O97" s="9">
         <v>2.4E-4</v>
       </c>
-      <c r="P97" s="7">
+      <c r="P97" s="9">
         <v>1.94E-4</v>
       </c>
-      <c r="Q97" s="7">
+      <c r="Q97" s="9">
         <v>1.66E-4</v>
       </c>
-      <c r="R97" s="7">
+      <c r="R97" s="9">
         <v>1.98E-4</v>
       </c>
     </row>
     <row r="98">
-      <c r="B98" s="7">
+      <c r="B98" s="9">
         <v>1.1E-5</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="9">
         <v>2.5E-5</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="9">
         <v>1.3E-5</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="9">
         <v>2.9E-5</v>
       </c>
-      <c r="F98" s="7">
+      <c r="F98" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="G98" s="7">
+      <c r="G98" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="H98" s="7">
+      <c r="H98" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="I98" s="7">
+      <c r="I98" s="9">
         <v>2.4E-5</v>
       </c>
-      <c r="K98" s="7">
+      <c r="K98" s="9">
         <v>2.28E-4</v>
       </c>
-      <c r="L98" s="7">
+      <c r="L98" s="9">
         <v>1.64E-4</v>
       </c>
-      <c r="M98" s="7">
+      <c r="M98" s="9">
         <v>1.93E-4</v>
       </c>
-      <c r="N98" s="7">
+      <c r="N98" s="9">
         <v>1.78E-4</v>
       </c>
-      <c r="O98" s="7">
+      <c r="O98" s="9">
         <v>3.49E-4</v>
       </c>
-      <c r="P98" s="7">
+      <c r="P98" s="9">
         <v>2.22E-4</v>
       </c>
-      <c r="Q98" s="7">
+      <c r="Q98" s="9">
         <v>1.8E-4</v>
       </c>
-      <c r="R98" s="7">
+      <c r="R98" s="9">
         <v>2.45E-4</v>
       </c>
     </row>
     <row r="99">
-      <c r="B99" s="7">
+      <c r="B99" s="9">
         <v>2.8E-5</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="D99" s="7">
+      <c r="D99" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="E99" s="7">
+      <c r="E99" s="9">
         <v>2.2E-5</v>
       </c>
-      <c r="F99" s="7">
+      <c r="F99" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="G99" s="7">
+      <c r="G99" s="9">
         <v>2.3E-5</v>
       </c>
-      <c r="H99" s="7">
+      <c r="H99" s="9">
         <v>3.4E-5</v>
       </c>
-      <c r="I99" s="7">
+      <c r="I99" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="K99" s="7">
+      <c r="K99" s="9">
         <v>2.03E-4</v>
       </c>
-      <c r="L99" s="7">
+      <c r="L99" s="9">
         <v>1.79E-4</v>
       </c>
-      <c r="M99" s="7">
+      <c r="M99" s="9">
         <v>1.96E-4</v>
       </c>
-      <c r="N99" s="7">
+      <c r="N99" s="9">
         <v>1.77E-4</v>
       </c>
-      <c r="O99" s="7">
+      <c r="O99" s="9">
         <v>2.99E-4</v>
       </c>
-      <c r="P99" s="7">
+      <c r="P99" s="9">
         <v>1.96E-4</v>
       </c>
-      <c r="Q99" s="7">
+      <c r="Q99" s="9">
         <v>1.76E-4</v>
       </c>
-      <c r="R99" s="7">
+      <c r="R99" s="9">
         <v>2.83E-4</v>
       </c>
     </row>
     <row r="100">
-      <c r="B100" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="C100" s="7">
+      <c r="B100" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="C100" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="9">
         <v>1.8E-5</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="F100" s="7">
+      <c r="F100" s="9">
         <v>2.8E-5</v>
       </c>
-      <c r="G100" s="7">
+      <c r="G100" s="9">
         <v>2.6E-5</v>
       </c>
-      <c r="H100" s="7">
+      <c r="H100" s="9">
         <v>1.4E-5</v>
       </c>
-      <c r="I100" s="7">
+      <c r="I100" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="K100" s="7">
+      <c r="K100" s="9">
         <v>2.03E-4</v>
       </c>
-      <c r="L100" s="7">
+      <c r="L100" s="9">
         <v>1.8E-4</v>
       </c>
-      <c r="M100" s="7">
+      <c r="M100" s="9">
         <v>1.97E-4</v>
       </c>
-      <c r="N100" s="7">
+      <c r="N100" s="9">
         <v>1.77E-4</v>
       </c>
-      <c r="O100" s="7">
+      <c r="O100" s="9">
         <v>3.23E-4</v>
       </c>
-      <c r="P100" s="7">
+      <c r="P100" s="9">
         <v>2.2E-4</v>
       </c>
-      <c r="Q100" s="7">
+      <c r="Q100" s="9">
         <v>1.61E-4</v>
       </c>
-      <c r="R100" s="7">
+      <c r="R100" s="9">
         <v>2.99E-4</v>
       </c>
     </row>
     <row r="101">
-      <c r="B101" s="7">
+      <c r="B101" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="9">
         <v>1.9E-5</v>
       </c>
-      <c r="D101" s="7">
+      <c r="D101" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="E101" s="7">
+      <c r="E101" s="9">
         <v>3.8E-5</v>
       </c>
-      <c r="F101" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="G101" s="7">
+      <c r="F101" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="G101" s="9">
         <v>3.3E-5</v>
       </c>
-      <c r="H101" s="7">
+      <c r="H101" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="I101" s="7">
+      <c r="I101" s="9">
         <v>5.7E-5</v>
       </c>
-      <c r="K101" s="7">
+      <c r="K101" s="9">
         <v>2.35E-4</v>
       </c>
-      <c r="L101" s="7">
+      <c r="L101" s="9">
         <v>1.74E-4</v>
       </c>
-      <c r="M101" s="7">
+      <c r="M101" s="9">
         <v>1.67E-4</v>
       </c>
-      <c r="N101" s="7">
+      <c r="N101" s="9">
         <v>1.97E-4</v>
       </c>
-      <c r="O101" s="7">
+      <c r="O101" s="9">
         <v>2.07E-4</v>
       </c>
-      <c r="P101" s="7">
+      <c r="P101" s="9">
         <v>2.1E-4</v>
       </c>
-      <c r="Q101" s="7">
+      <c r="Q101" s="9">
         <v>1.57E-4</v>
       </c>
-      <c r="R101" s="7">
+      <c r="R101" s="9">
         <v>2.86E-4</v>
       </c>
     </row>
     <row r="102">
-      <c r="B102" s="7">
+      <c r="B102" s="9">
         <v>5.1E-5</v>
       </c>
-      <c r="C102" s="7">
+      <c r="C102" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="E102" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="F102" s="7">
+      <c r="E102" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="F102" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="G102" s="7">
+      <c r="G102" s="9">
         <v>3.7E-5</v>
       </c>
-      <c r="H102" s="7">
+      <c r="H102" s="9">
         <v>2.0E-5</v>
       </c>
-      <c r="I102" s="7">
+      <c r="I102" s="9">
         <v>4.1E-5</v>
       </c>
-      <c r="K102" s="7">
+      <c r="K102" s="9">
         <v>1.99E-4</v>
       </c>
-      <c r="L102" s="7">
+      <c r="L102" s="9">
         <v>1.63E-4</v>
       </c>
-      <c r="M102" s="7">
+      <c r="M102" s="9">
         <v>1.7E-4</v>
       </c>
-      <c r="N102" s="7">
+      <c r="N102" s="9">
         <v>1.78E-4</v>
       </c>
-      <c r="O102" s="7">
+      <c r="O102" s="9">
         <v>1.8E-4</v>
       </c>
-      <c r="P102" s="7">
+      <c r="P102" s="9">
         <v>2.48E-4</v>
       </c>
-      <c r="Q102" s="7">
+      <c r="Q102" s="9">
         <v>1.6E-4</v>
       </c>
-      <c r="R102" s="7">
+      <c r="R102" s="9">
         <v>2.62E-4</v>
       </c>
     </row>
     <row r="103">
-      <c r="B103" s="7">
+      <c r="B103" s="9">
         <v>5.2E-5</v>
       </c>
-      <c r="C103" s="7">
+      <c r="C103" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="D103" s="7">
+      <c r="D103" s="9">
         <v>2.5E-5</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="9">
         <v>1.7E-5</v>
       </c>
-      <c r="F103" s="7">
+      <c r="F103" s="9">
         <v>5.0E-5</v>
       </c>
-      <c r="G103" s="7">
+      <c r="G103" s="9">
         <v>3.5E-5</v>
       </c>
-      <c r="H103" s="7">
-        <v>1.6E-5</v>
-      </c>
-      <c r="I103" s="7">
+      <c r="H103" s="9">
+        <v>1.6E-5</v>
+      </c>
+      <c r="I103" s="9">
         <v>5.8E-5</v>
       </c>
-      <c r="K103" s="7">
+      <c r="K103" s="9">
         <v>2.19E-4</v>
       </c>
-      <c r="L103" s="7">
+      <c r="L103" s="9">
         <v>1.49E-4</v>
       </c>
-      <c r="M103" s="7">
+      <c r="M103" s="9">
         <v>1.74E-4</v>
       </c>
-      <c r="N103" s="7">
+      <c r="N103" s="9">
         <v>2.47E-4</v>
       </c>
-      <c r="O103" s="7">
+      <c r="O103" s="9">
         <v>1.98E-4</v>
       </c>
-      <c r="P103" s="7">
+      <c r="P103" s="9">
         <v>2.24E-4</v>
       </c>
-      <c r="Q103" s="7">
+      <c r="Q103" s="9">
         <v>1.7E-4</v>
       </c>
-      <c r="R103" s="7">
+      <c r="R103" s="9">
         <v>2.56E-4</v>
       </c>
     </row>
     <row r="104">
-      <c r="B104" s="7">
+      <c r="B104" s="9">
         <v>2.4E-5</v>
       </c>
-      <c r="C104" s="7">
+      <c r="C104" s="9">
         <v>3.9E-5</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="9">
         <v>3.2E-5</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="9">
         <v>1.2E-5</v>
       </c>
-      <c r="F104" s="7">
+      <c r="F104" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="G104" s="7">
+      <c r="G104" s="9">
         <v>3.6E-5</v>
       </c>
-      <c r="H104" s="7">
+      <c r="H104" s="9">
         <v>4.7E-5</v>
       </c>
-      <c r="I104" s="7">
+      <c r="I104" s="9">
         <v>3.1E-5</v>
       </c>
-      <c r="K104" s="7">
+      <c r="K104" s="9">
         <v>2.59E-4</v>
       </c>
-      <c r="L104" s="7">
+      <c r="L104" s="9">
         <v>1.67E-4</v>
       </c>
-      <c r="M104" s="7">
+      <c r="M104" s="9">
         <v>1.71E-4</v>
       </c>
-      <c r="N104" s="7">
+      <c r="N104" s="9">
         <v>1.88E-4</v>
       </c>
-      <c r="O104" s="7">
+      <c r="O104" s="9">
         <v>1.84E-4</v>
       </c>
-      <c r="P104" s="7">
+      <c r="P104" s="9">
         <v>1.95E-4</v>
       </c>
-      <c r="Q104" s="7">
+      <c r="Q104" s="9">
         <v>2.0E-4</v>
       </c>
-      <c r="R104" s="7">
+      <c r="R104" s="9">
         <v>2.3E-4</v>
       </c>
     </row>
     <row r="106">
+      <c r="A106" s="9" t="s">
+        <v>9</v>
+      </c>
       <c r="B106" t="str">
         <f t="shared" ref="B106:I106" si="1">min(B4:B103)</f>
         <v>0.000005</v>
@@ -5374,6 +5387,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="K2:S2"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>